--- a/词汇/数据库导入/013.-st-==-sist-==-stat-==-stin-==-stem-==-stit-立，站.xlsx
+++ b/词汇/数据库导入/013.-st-==-sist-==-stat-==-stin-==-stem-==-stit-立，站.xlsx
@@ -24734,6 +24734,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>vi</t>
     </r>
     <r>
@@ -24790,6 +24796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -24825,6 +24837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -24863,6 +24881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -24901,6 +24925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -24939,6 +24969,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -24980,6 +25016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -25072,6 +25114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25113,6 +25161,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -25189,6 +25243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -25227,6 +25287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25262,6 +25328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25297,6 +25369,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25332,6 +25410,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25367,6 +25451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -25402,6 +25492,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25437,6 +25533,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25475,6 +25577,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -25600,6 +25708,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -25638,6 +25752,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -25676,6 +25796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25714,6 +25840,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25752,6 +25884,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -25841,6 +25979,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -25879,6 +26023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -25917,6 +26067,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25955,6 +26111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -25996,6 +26158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -26067,6 +26235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -26105,6 +26279,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -26143,6 +26323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26181,6 +26367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26219,6 +26411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -26275,6 +26473,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -26331,6 +26535,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -26387,6 +26597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -26425,6 +26641,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26463,6 +26685,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -26501,6 +26729,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26539,6 +26773,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26577,6 +26817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -26615,6 +26861,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26650,6 +26902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -26685,6 +26943,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26723,6 +26987,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -26758,6 +27028,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -26793,6 +27069,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. [</t>
     </r>
     <r>
@@ -26867,6 +27149,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -26899,6 +27187,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【</t>
     </r>
     <r>
@@ -26916,6 +27210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -26954,6 +27254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -26989,6 +27295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -27045,6 +27357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -27083,6 +27401,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -27121,6 +27445,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -27156,6 +27486,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -27191,6 +27527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -27226,6 +27568,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -27288,6 +27636,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -27359,6 +27713,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -27394,6 +27754,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -27414,6 +27780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -27470,6 +27842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -27524,6 +27902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -27562,6 +27946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -27597,6 +27987,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -27635,6 +28031,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -27673,6 +28075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -27714,6 +28122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -27752,6 +28166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -27769,6 +28189,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -27804,6 +28230,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -27839,6 +28271,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>obstina</t>
     </r>
     <r>
@@ -27877,6 +28315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -27918,6 +28362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -27949,13 +28399,19 @@
     </r>
   </si>
   <si>
-    <t>【con-强调+sit站，词源的stand,institute,即站立其中的，构成其中一部分的，词根词缀：con-共同+stitut创建，建立 +e动词后缀】</t>
+    <t>【con-强调+stit站，词源的stand,institute,即站立其中的，构成其中一部分的，词根词缀：con-共同+stitut创建，建立 +e动词后缀】</t>
   </si>
   <si>
     <t>constitution [kɒnstɪ'tjuːʃ(ə)n]</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -27991,6 +28447,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -28066,6 +28528,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28101,6 +28569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -28136,6 +28610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28174,6 +28654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28209,6 +28695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28283,6 +28775,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -28321,6 +28819,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -28377,6 +28881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -28415,6 +28925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28450,6 +28966,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -28485,6 +29007,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -28523,6 +29051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -28558,6 +29092,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28596,6 +29136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -28634,6 +29180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -28679,6 +29231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -28720,6 +29278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -28779,6 +29343,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -28877,6 +29447,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>失速的【词频</t>
     </r>
     <r>
@@ -28903,6 +29479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -28956,6 +29538,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -28994,6 +29582,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -29032,6 +29626,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -29070,6 +29670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29105,6 +29711,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29140,6 +29752,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29178,6 +29796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -29213,6 +29837,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -29248,6 +29878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29289,6 +29925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -29327,6 +29969,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29430,13 +30078,19 @@
     </r>
   </si>
   <si>
-    <t>【sub-下面，向上-sit-站立--替代+ute=ate动词后缀，偶尔表名词，词源同stand,institute,即站在下面的，随时准备站上去的。引申词义代替，替代】</t>
+    <t>【sub-下面，向上-stit-站立--替代+ute=ate动词后缀，偶尔表名词，词源同stand,institute,即站在下面的，随时准备站上去的。引申词义代替，替代】</t>
   </si>
   <si>
     <t>substitution [sʌbstɪ'tjuːʃn]</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29508,6 +30162,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -29543,6 +30203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -29581,6 +30247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -29619,6 +30291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -29708,6 +30386,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -29746,6 +30430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29785,6 +30475,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -29841,6 +30537,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -29882,6 +30584,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -29971,6 +30679,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30009,6 +30723,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -30047,6 +30767,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -30085,6 +30811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -30138,6 +30870,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30194,6 +30932,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -30271,6 +31015,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -30355,6 +31105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -30393,6 +31149,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30431,6 +31193,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -30469,6 +31237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -30543,6 +31317,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30581,6 +31361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30616,6 +31402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30651,6 +31443,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30686,6 +31484,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -30724,6 +31528,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -30783,6 +31593,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -30839,6 +31655,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -30880,6 +31702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -30969,6 +31797,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -31007,6 +31841,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31045,6 +31885,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -31101,6 +31947,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -31154,6 +32006,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31189,6 +32047,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31245,6 +32109,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31283,6 +32153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -31372,6 +32248,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31425,6 +32307,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31481,6 +32369,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -31516,6 +32410,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31554,6 +32454,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -31628,6 +32534,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -31666,6 +32578,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31704,6 +32622,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -31742,6 +32666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -31780,6 +32710,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -31818,6 +32754,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -31856,6 +32798,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -31894,6 +32842,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -31932,6 +32886,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -31970,6 +32930,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -32008,6 +32974,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -32028,6 +33000,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -32045,6 +33023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -32116,6 +33100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>ecsta</t>
     </r>
     <r>
@@ -32148,6 +33138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -32201,6 +33197,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -32239,6 +33241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -32295,6 +33303,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -32333,6 +33347,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj.</t>
     </r>
     <r>
@@ -32371,6 +33391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -32424,6 +33450,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -32498,6 +33530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -32536,6 +33574,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -32574,6 +33618,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. [</t>
     </r>
     <r>
@@ -32631,6 +33681,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. [</t>
     </r>
     <r>
@@ -32687,6 +33743,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -32725,6 +33787,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -32760,6 +33828,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -32813,6 +33887,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -32869,6 +33949,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -32904,6 +33990,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -32945,6 +34037,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -33001,6 +34099,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33036,6 +34140,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -33077,6 +34187,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33112,6 +34228,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -33150,6 +34272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -33185,6 +34313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -33244,6 +34378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33370,6 +34510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -33423,6 +34569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33458,6 +34610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>epistem</t>
     </r>
     <r>
@@ -33491,6 +34649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>epistemolog</t>
     </r>
     <r>
@@ -33523,6 +34687,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -33561,6 +34731,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33596,6 +34772,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. 1. </t>
     </r>
     <r>
@@ -33652,6 +34834,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -33726,6 +34914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">v. </t>
     </r>
     <r>
@@ -33810,6 +35004,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33857,6 +35057,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33895,6 +35101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -33987,6 +35199,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -34046,6 +35264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -34081,6 +35305,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> v. </t>
     </r>
     <r>
@@ -34158,6 +35388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -34266,6 +35502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -34304,6 +35546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -34342,6 +35590,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -34395,6 +35649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -34415,6 +35675,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -34463,6 +35729,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -34498,6 +35770,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -34608,6 +35886,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> v. </t>
     </r>
     <r>
@@ -34664,6 +35948,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -34745,6 +36035,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -34804,6 +36100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vi. </t>
     </r>
     <r>
@@ -34914,6 +36216,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -34967,6 +36275,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -35005,6 +36319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -35043,6 +36363,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -35099,6 +36425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -35127,6 +36459,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -35198,6 +36536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -35233,6 +36577,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. [</t>
     </r>
     <r>
@@ -35286,6 +36636,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -35334,6 +36690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -35369,6 +36731,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -35407,6 +36775,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -35457,6 +36831,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -35514,10 +36894,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -35553,6 +36933,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -35568,119 +37062,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -35688,7 +37069,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -35717,19 +37097,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35741,97 +37139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35843,25 +37157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35879,7 +37175,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35891,13 +37205,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -35926,17 +37306,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -35965,21 +37360,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -36000,17 +37380,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -36031,10 +37411,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -36043,19 +37423,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -36064,116 +37444,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -36207,35 +37587,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -36593,8 +37946,8 @@
   <sheetPr/>
   <dimension ref="A1:E727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A716" workbookViewId="0">
-      <selection activeCell="D726" sqref="D726"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="D588" sqref="D588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -44855,7 +46208,7 @@
       </c>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="11" t="s">
+      <c r="A488" s="3" t="s">
         <v>1315</v>
       </c>
       <c r="B488" t="s">
@@ -44864,15 +46217,15 @@
       <c r="C488" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D488" s="12" t="s">
+      <c r="D488" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="E488" s="13" t="s">
+      <c r="E488" s="6" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="489" spans="1:5">
-      <c r="A489" s="11" t="s">
+      <c r="A489" s="3" t="s">
         <v>1319</v>
       </c>
       <c r="B489" t="s">
@@ -44881,15 +46234,15 @@
       <c r="C489" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D489" s="12" t="s">
+      <c r="D489" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="E489" s="13" t="s">
+      <c r="E489" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="11" t="s">
+      <c r="A490" s="3" t="s">
         <v>1321</v>
       </c>
       <c r="B490" t="s">
@@ -44898,15 +46251,15 @@
       <c r="C490" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D490" s="11" t="s">
+      <c r="D490" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="E490" s="14" t="s">
+      <c r="E490" s="5" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="11" t="s">
+      <c r="A491" s="3" t="s">
         <v>1324</v>
       </c>
       <c r="B491" t="s">
@@ -44915,15 +46268,15 @@
       <c r="C491" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D491" s="12" t="s">
+      <c r="D491" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="E491" s="14" t="s">
+      <c r="E491" s="5" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="11" t="s">
+      <c r="A492" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="B492" t="s">
@@ -44932,15 +46285,15 @@
       <c r="C492" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D492" s="12" t="s">
+      <c r="D492" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="E492" s="13" t="s">
+      <c r="E492" s="6" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="493" spans="1:5">
-      <c r="A493" s="11" t="s">
+      <c r="A493" s="3" t="s">
         <v>1330</v>
       </c>
       <c r="B493" t="s">
@@ -44949,15 +46302,15 @@
       <c r="C493" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="D493" s="12" t="s">
+      <c r="D493" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="E493" s="13" t="s">
+      <c r="E493" s="6" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="494" ht="27" spans="1:5">
-      <c r="A494" s="11" t="s">
+      <c r="A494" s="3" t="s">
         <v>1333</v>
       </c>
       <c r="B494" t="s">
@@ -44966,15 +46319,15 @@
       <c r="C494" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D494" s="11" t="s">
+      <c r="D494" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="E494" s="13" t="s">
+      <c r="E494" s="6" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" s="11" t="s">
+      <c r="A495" s="3" t="s">
         <v>1337</v>
       </c>
       <c r="B495" t="s">
@@ -44983,30 +46336,30 @@
       <c r="C495" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D495" s="12" t="s">
+      <c r="D495" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="E495" s="13" t="s">
+      <c r="E495" s="6" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="496" ht="51" spans="1:5">
-      <c r="A496" s="11" t="s">
+      <c r="A496" s="3" t="s">
         <v>1340</v>
       </c>
       <c r="B496" t="s">
         <v>1341</v>
       </c>
       <c r="C496" s="3"/>
-      <c r="D496" s="12" t="s">
+      <c r="D496" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="E496" s="15" t="s">
+      <c r="E496" s="9" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="11" t="s">
+      <c r="A497" s="3" t="s">
         <v>1344</v>
       </c>
       <c r="B497" t="s">
@@ -45015,15 +46368,15 @@
       <c r="C497" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D497" s="12" t="s">
+      <c r="D497" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="E497" s="13" t="s">
+      <c r="E497" s="6" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="11" t="s">
+      <c r="A498" s="3" t="s">
         <v>1347</v>
       </c>
       <c r="B498" t="s">
@@ -45032,15 +46385,15 @@
       <c r="C498" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D498" s="12" t="s">
+      <c r="D498" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="E498" s="13" t="s">
+      <c r="E498" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="11" t="s">
+      <c r="A499" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="B499" t="s">
@@ -45049,15 +46402,15 @@
       <c r="C499" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D499" s="12" t="s">
+      <c r="D499" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="E499" s="13" t="s">
+      <c r="E499" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="11" t="s">
+      <c r="A500" s="3" t="s">
         <v>1351</v>
       </c>
       <c r="B500" t="s">
@@ -45066,15 +46419,15 @@
       <c r="C500" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D500" s="12" t="s">
+      <c r="D500" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="E500" s="13" t="s">
+      <c r="E500" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="11" t="s">
+      <c r="A501" s="3" t="s">
         <v>1353</v>
       </c>
       <c r="B501" t="s">
@@ -45083,15 +46436,15 @@
       <c r="C501" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D501" s="12" t="s">
+      <c r="D501" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="E501" s="13" t="s">
+      <c r="E501" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="11" t="s">
+      <c r="A502" s="3" t="s">
         <v>1355</v>
       </c>
       <c r="B502" t="s">
@@ -45100,15 +46453,15 @@
       <c r="C502" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D502" s="12" t="s">
+      <c r="D502" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="E502" s="13" t="s">
+      <c r="E502" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="11" t="s">
+      <c r="A503" s="3" t="s">
         <v>1357</v>
       </c>
       <c r="B503" t="s">
@@ -45117,15 +46470,15 @@
       <c r="C503" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D503" s="12" t="s">
+      <c r="D503" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="E503" s="13" t="s">
+      <c r="E503" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="504" spans="1:5">
-      <c r="A504" s="11" t="s">
+      <c r="A504" s="3" t="s">
         <v>1359</v>
       </c>
       <c r="B504" t="s">
@@ -45134,15 +46487,15 @@
       <c r="C504" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="D504" s="12" t="s">
+      <c r="D504" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="E504" s="14" t="s">
+      <c r="E504" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="11" t="s">
+      <c r="A505" s="3" t="s">
         <v>1361</v>
       </c>
       <c r="B505" t="s">
@@ -45151,12 +46504,12 @@
       <c r="C505" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D505" s="12" t="s">
+      <c r="D505" s="4" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="11" t="s">
+      <c r="A506" s="3" t="s">
         <v>1364</v>
       </c>
       <c r="B506" t="s">
@@ -45165,15 +46518,15 @@
       <c r="C506" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D506" s="12" t="s">
+      <c r="D506" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="E506" s="13" t="s">
+      <c r="E506" s="6" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="11" t="s">
+      <c r="A507" s="3" t="s">
         <v>1367</v>
       </c>
       <c r="B507" t="s">
@@ -45182,15 +46535,15 @@
       <c r="C507" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D507" s="12" t="s">
+      <c r="D507" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="E507" s="13" t="s">
+      <c r="E507" s="6" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="508" spans="1:5">
-      <c r="A508" s="11" t="s">
+      <c r="A508" s="3" t="s">
         <v>1370</v>
       </c>
       <c r="B508" t="s">
@@ -45199,15 +46552,15 @@
       <c r="C508" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D508" s="12" t="s">
+      <c r="D508" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="E508" s="13" t="s">
+      <c r="E508" s="6" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="11" t="s">
+      <c r="A509" s="3" t="s">
         <v>1373</v>
       </c>
       <c r="B509" t="s">
@@ -45216,15 +46569,15 @@
       <c r="C509" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D509" s="12" t="s">
+      <c r="D509" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="E509" s="13" t="s">
+      <c r="E509" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="510" ht="27" spans="1:4">
-      <c r="A510" s="11" t="s">
+      <c r="A510" s="3" t="s">
         <v>1375</v>
       </c>
       <c r="B510" t="s">
@@ -45233,12 +46586,12 @@
       <c r="C510" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="D510" s="11" t="s">
+      <c r="D510" s="3" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="11" t="s">
+      <c r="A511" s="3" t="s">
         <v>1378</v>
       </c>
       <c r="B511" t="s">
@@ -45247,15 +46600,15 @@
       <c r="C511" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="D511" s="11" t="s">
+      <c r="D511" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="E511" s="13" t="s">
+      <c r="E511" s="6" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="11" t="s">
+      <c r="A512" s="3" t="s">
         <v>1381</v>
       </c>
       <c r="B512" t="s">
@@ -45264,15 +46617,15 @@
       <c r="C512" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="D512" s="12" t="s">
+      <c r="D512" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="E512" s="13" t="s">
+      <c r="E512" s="6" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="11" t="s">
+      <c r="A513" s="3" t="s">
         <v>1384</v>
       </c>
       <c r="B513" t="s">
@@ -45281,15 +46634,15 @@
       <c r="C513" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="D513" s="12" t="s">
+      <c r="D513" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="E513" s="14" t="s">
+      <c r="E513" s="5" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="11" t="s">
+      <c r="A514" s="3" t="s">
         <v>1387</v>
       </c>
       <c r="B514" t="s">
@@ -45298,15 +46651,15 @@
       <c r="C514" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="D514" s="12" t="s">
+      <c r="D514" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="E514" s="13" t="s">
+      <c r="E514" s="6" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="11" t="s">
+      <c r="A515" s="3" t="s">
         <v>1390</v>
       </c>
       <c r="B515" t="s">
@@ -45315,12 +46668,12 @@
       <c r="C515" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D515" s="12" t="s">
+      <c r="D515" s="4" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="11" t="s">
+      <c r="A516" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="B516" t="s">
@@ -45329,15 +46682,15 @@
       <c r="C516" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D516" s="12" t="s">
+      <c r="D516" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="E516" s="13" t="s">
+      <c r="E516" s="6" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="517" spans="1:5">
-      <c r="A517" s="11" t="s">
+      <c r="A517" s="3" t="s">
         <v>1396</v>
       </c>
       <c r="B517" t="s">
@@ -45346,15 +46699,15 @@
       <c r="C517" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D517" s="12" t="s">
+      <c r="D517" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="E517" s="13" t="s">
+      <c r="E517" s="6" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="11" t="s">
+      <c r="A518" s="3" t="s">
         <v>1399</v>
       </c>
       <c r="B518" t="s">
@@ -45363,15 +46716,15 @@
       <c r="C518" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D518" s="12" t="s">
+      <c r="D518" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="E518" s="13" t="s">
+      <c r="E518" s="6" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="11" t="s">
+      <c r="A519" s="3" t="s">
         <v>1402</v>
       </c>
       <c r="B519" t="s">
@@ -45380,15 +46733,15 @@
       <c r="C519" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D519" s="12" t="s">
+      <c r="D519" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="E519" s="13" t="s">
+      <c r="E519" s="6" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="11" t="s">
+      <c r="A520" s="3" t="s">
         <v>1405</v>
       </c>
       <c r="B520" t="s">
@@ -45397,15 +46750,15 @@
       <c r="C520" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D520" s="12" t="s">
+      <c r="D520" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="E520" s="13" t="s">
+      <c r="E520" s="6" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="11" t="s">
+      <c r="A521" s="3" t="s">
         <v>1408</v>
       </c>
       <c r="B521" t="s">
@@ -45414,15 +46767,15 @@
       <c r="C521" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D521" s="12" t="s">
+      <c r="D521" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="E521" s="13" t="s">
+      <c r="E521" s="6" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="11" t="s">
+      <c r="A522" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="B522" t="s">
@@ -45431,15 +46784,15 @@
       <c r="C522" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D522" s="12" t="s">
+      <c r="D522" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="E522" s="13" t="s">
+      <c r="E522" s="6" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="11" t="s">
+      <c r="A523" s="3" t="s">
         <v>1414</v>
       </c>
       <c r="B523" t="s">
@@ -45448,15 +46801,15 @@
       <c r="C523" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D523" s="12" t="s">
+      <c r="D523" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="E523" s="13" t="s">
+      <c r="E523" s="6" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="524" spans="1:5">
-      <c r="A524" s="11" t="s">
+      <c r="A524" s="3" t="s">
         <v>1417</v>
       </c>
       <c r="B524" t="s">
@@ -45465,15 +46818,15 @@
       <c r="C524" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D524" s="12" t="s">
+      <c r="D524" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="E524" s="13" t="s">
+      <c r="E524" s="6" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="11" t="s">
+      <c r="A525" s="3" t="s">
         <v>1420</v>
       </c>
       <c r="B525" t="s">
@@ -45482,15 +46835,15 @@
       <c r="C525" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D525" s="12" t="s">
+      <c r="D525" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="E525" s="13" t="s">
+      <c r="E525" s="6" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="11" t="s">
+      <c r="A526" s="3" t="s">
         <v>1423</v>
       </c>
       <c r="B526" t="s">
@@ -45499,15 +46852,15 @@
       <c r="C526" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D526" s="12" t="s">
+      <c r="D526" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="E526" s="13" t="s">
+      <c r="E526" s="6" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="11" t="s">
+      <c r="A527" s="3" t="s">
         <v>1426</v>
       </c>
       <c r="B527" t="s">
@@ -45516,15 +46869,15 @@
       <c r="C527" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D527" s="12" t="s">
+      <c r="D527" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="E527" s="13" t="s">
+      <c r="E527" s="6" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="528" spans="1:5">
-      <c r="A528" s="11" t="s">
+      <c r="A528" s="3" t="s">
         <v>1429</v>
       </c>
       <c r="B528" t="s">
@@ -45533,15 +46886,15 @@
       <c r="C528" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D528" s="12" t="s">
+      <c r="D528" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="E528" s="13" t="s">
+      <c r="E528" s="6" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="11" t="s">
+      <c r="A529" s="3" t="s">
         <v>1432</v>
       </c>
       <c r="B529" t="s">
@@ -45550,15 +46903,15 @@
       <c r="C529" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D529" s="12" t="s">
+      <c r="D529" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="E529" s="13" t="s">
+      <c r="E529" s="6" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="11" t="s">
+      <c r="A530" s="3" t="s">
         <v>1434</v>
       </c>
       <c r="B530" t="s">
@@ -45567,15 +46920,15 @@
       <c r="C530" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D530" s="12" t="s">
+      <c r="D530" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="E530" s="13" t="s">
+      <c r="E530" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="11" t="s">
+      <c r="A531" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="B531" t="s">
@@ -45584,15 +46937,15 @@
       <c r="C531" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D531" s="12" t="s">
+      <c r="D531" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="E531" s="13" t="s">
+      <c r="E531" s="6" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="532" spans="1:5">
-      <c r="A532" s="11" t="s">
+      <c r="A532" s="3" t="s">
         <v>1439</v>
       </c>
       <c r="B532" t="s">
@@ -45601,15 +46954,15 @@
       <c r="C532" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D532" s="12" t="s">
+      <c r="D532" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="E532" s="13" t="s">
+      <c r="E532" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="11" t="s">
+      <c r="A533" s="3" t="s">
         <v>1441</v>
       </c>
       <c r="B533" t="s">
@@ -45618,15 +46971,15 @@
       <c r="C533" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D533" s="11" t="s">
+      <c r="D533" s="3" t="s">
         <v>1442</v>
       </c>
-      <c r="E533" s="13" t="s">
+      <c r="E533" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="534" spans="1:4">
-      <c r="A534" s="11" t="s">
+      <c r="A534" s="3" t="s">
         <v>1443</v>
       </c>
       <c r="B534" t="s">
@@ -45635,12 +46988,12 @@
       <c r="C534" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="D534" s="12" t="s">
+      <c r="D534" s="4" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="535" spans="1:5">
-      <c r="A535" s="11" t="s">
+      <c r="A535" s="3" t="s">
         <v>1445</v>
       </c>
       <c r="B535" t="s">
@@ -45649,15 +47002,15 @@
       <c r="C535" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D535" s="12" t="s">
+      <c r="D535" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="E535" s="13" t="s">
+      <c r="E535" s="6" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="536" spans="1:5">
-      <c r="A536" s="11" t="s">
+      <c r="A536" s="3" t="s">
         <v>1449</v>
       </c>
       <c r="B536" t="s">
@@ -45666,15 +47019,15 @@
       <c r="C536" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D536" s="12" t="s">
+      <c r="D536" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="E536" s="13" t="s">
+      <c r="E536" s="6" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="537" spans="1:5">
-      <c r="A537" s="11" t="s">
+      <c r="A537" s="3" t="s">
         <v>1452</v>
       </c>
       <c r="B537" t="s">
@@ -45683,15 +47036,15 @@
       <c r="C537" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D537" s="12" t="s">
+      <c r="D537" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="E537" s="13" t="s">
+      <c r="E537" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="11" t="s">
+      <c r="A538" s="3" t="s">
         <v>1454</v>
       </c>
       <c r="B538" t="s">
@@ -45700,15 +47053,15 @@
       <c r="C538" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D538" s="12" t="s">
+      <c r="D538" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="E538" s="13" t="s">
+      <c r="E538" s="6" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="539" spans="1:5">
-      <c r="A539" s="11" t="s">
+      <c r="A539" s="3" t="s">
         <v>1457</v>
       </c>
       <c r="B539" t="s">
@@ -45717,15 +47070,15 @@
       <c r="C539" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D539" s="12" t="s">
+      <c r="D539" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="E539" s="13" t="s">
+      <c r="E539" s="6" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="540" spans="1:5">
-      <c r="A540" s="11" t="s">
+      <c r="A540" s="3" t="s">
         <v>1460</v>
       </c>
       <c r="B540" t="s">
@@ -45734,15 +47087,15 @@
       <c r="C540" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D540" s="12" t="s">
+      <c r="D540" s="4" t="s">
         <v>1461</v>
       </c>
-      <c r="E540" s="13" t="s">
+      <c r="E540" s="6" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="541" spans="1:5">
-      <c r="A541" s="11" t="s">
+      <c r="A541" s="3" t="s">
         <v>1463</v>
       </c>
       <c r="B541" t="s">
@@ -45751,15 +47104,15 @@
       <c r="C541" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D541" s="12" t="s">
+      <c r="D541" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="E541" s="13" t="s">
+      <c r="E541" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="542" spans="1:5">
-      <c r="A542" s="11" t="s">
+      <c r="A542" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="B542" t="s">
@@ -45768,15 +47121,15 @@
       <c r="C542" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D542" s="12" t="s">
+      <c r="D542" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="E542" s="13" t="s">
+      <c r="E542" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="543" spans="1:5">
-      <c r="A543" s="11" t="s">
+      <c r="A543" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="B543" t="s">
@@ -45785,15 +47138,15 @@
       <c r="C543" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D543" s="12" t="s">
+      <c r="D543" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="E543" s="13" t="s">
+      <c r="E543" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="544" spans="1:5">
-      <c r="A544" s="11" t="s">
+      <c r="A544" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="B544" t="s">
@@ -45802,15 +47155,15 @@
       <c r="C544" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="D544" s="16" t="s">
+      <c r="D544" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="E544" s="13" t="s">
+      <c r="E544" s="6" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="545" spans="1:4">
-      <c r="A545" s="11" t="s">
+      <c r="A545" s="3" t="s">
         <v>1472</v>
       </c>
       <c r="B545" t="s">
@@ -45819,12 +47172,12 @@
       <c r="C545" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D545" s="12" t="s">
+      <c r="D545" s="4" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="546" spans="1:5">
-      <c r="A546" s="11" t="s">
+      <c r="A546" s="3" t="s">
         <v>1476</v>
       </c>
       <c r="B546" t="s">
@@ -45833,15 +47186,15 @@
       <c r="C546" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D546" s="12" t="s">
+      <c r="D546" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="E546" s="13" t="s">
+      <c r="E546" s="6" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="547" spans="1:5">
-      <c r="A547" s="11" t="s">
+      <c r="A547" s="3" t="s">
         <v>1478</v>
       </c>
       <c r="B547" t="s">
@@ -45850,15 +47203,15 @@
       <c r="C547" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D547" s="16" t="s">
+      <c r="D547" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="E547" s="13" t="s">
+      <c r="E547" s="6" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="548" spans="1:5">
-      <c r="A548" s="11" t="s">
+      <c r="A548" s="3" t="s">
         <v>1481</v>
       </c>
       <c r="B548" t="s">
@@ -45867,15 +47220,15 @@
       <c r="C548" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D548" s="12" t="s">
+      <c r="D548" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="E548" s="13" t="s">
+      <c r="E548" s="6" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="549" ht="39.75" spans="1:5">
-      <c r="A549" s="11" t="s">
+      <c r="A549" s="3" t="s">
         <v>1484</v>
       </c>
       <c r="B549" t="s">
@@ -45884,15 +47237,15 @@
       <c r="C549" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D549" s="17" t="s">
+      <c r="D549" s="8" t="s">
         <v>1485</v>
       </c>
-      <c r="E549" s="13" t="s">
+      <c r="E549" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="550" spans="1:5">
-      <c r="A550" s="11" t="s">
+      <c r="A550" s="3" t="s">
         <v>1486</v>
       </c>
       <c r="B550" t="s">
@@ -45901,15 +47254,15 @@
       <c r="C550" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D550" s="12" t="s">
+      <c r="D550" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="E550" s="13" t="s">
+      <c r="E550" s="6" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="551" spans="1:5">
-      <c r="A551" s="11" t="s">
+      <c r="A551" s="3" t="s">
         <v>1489</v>
       </c>
       <c r="B551" t="s">
@@ -45918,15 +47271,15 @@
       <c r="C551" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D551" s="12" t="s">
+      <c r="D551" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="E551" s="13" t="s">
+      <c r="E551" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="552" spans="1:5">
-      <c r="A552" s="11" t="s">
+      <c r="A552" s="3" t="s">
         <v>1491</v>
       </c>
       <c r="B552" t="s">
@@ -45935,15 +47288,15 @@
       <c r="C552" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D552" s="11" t="s">
+      <c r="D552" s="3" t="s">
         <v>1492</v>
       </c>
-      <c r="E552" s="13" t="s">
+      <c r="E552" s="6" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="11" t="s">
+      <c r="A553" s="3" t="s">
         <v>1494</v>
       </c>
       <c r="B553" t="s">
@@ -45952,15 +47305,15 @@
       <c r="C553" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D553" s="12" t="s">
+      <c r="D553" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="E553" s="13" t="s">
+      <c r="E553" s="6" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="554" spans="1:5">
-      <c r="A554" s="11" t="s">
+      <c r="A554" s="3" t="s">
         <v>1497</v>
       </c>
       <c r="B554" t="s">
@@ -45969,15 +47322,15 @@
       <c r="C554" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D554" s="12" t="s">
+      <c r="D554" s="4" t="s">
         <v>1498</v>
       </c>
-      <c r="E554" s="13" t="s">
+      <c r="E554" s="6" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="555" spans="1:4">
-      <c r="A555" s="11" t="s">
+      <c r="A555" s="3" t="s">
         <v>1500</v>
       </c>
       <c r="B555" t="s">
@@ -45986,12 +47339,12 @@
       <c r="C555" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="D555" s="12" t="s">
+      <c r="D555" s="4" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="556" spans="1:4">
-      <c r="A556" s="11" t="s">
+      <c r="A556" s="3" t="s">
         <v>1503</v>
       </c>
       <c r="B556" t="s">
@@ -46000,12 +47353,12 @@
       <c r="C556" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="D556" s="12" t="s">
+      <c r="D556" s="4" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="557" spans="1:4">
-      <c r="A557" s="11" t="s">
+      <c r="A557" s="3" t="s">
         <v>1506</v>
       </c>
       <c r="B557" t="s">
@@ -46014,12 +47367,12 @@
       <c r="C557" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="D557" s="12" t="s">
+      <c r="D557" s="4" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="11" t="s">
+      <c r="A558" s="3" t="s">
         <v>1508</v>
       </c>
       <c r="B558" t="s">
@@ -46028,15 +47381,15 @@
       <c r="C558" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="D558" s="12" t="s">
+      <c r="D558" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="E558" s="13" t="s">
+      <c r="E558" s="6" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="559" ht="25.5" spans="1:5">
-      <c r="A559" s="11" t="s">
+      <c r="A559" s="3" t="s">
         <v>1511</v>
       </c>
       <c r="B559" t="s">
@@ -46045,15 +47398,15 @@
       <c r="C559" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="D559" s="12" t="s">
+      <c r="D559" s="4" t="s">
         <v>1514</v>
       </c>
-      <c r="E559" s="13" t="s">
+      <c r="E559" s="6" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="560" spans="1:5">
-      <c r="A560" s="11" t="s">
+      <c r="A560" s="3" t="s">
         <v>1516</v>
       </c>
       <c r="B560" t="s">
@@ -46062,15 +47415,15 @@
       <c r="C560" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="D560" s="12" t="s">
+      <c r="D560" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="E560" s="13" t="s">
+      <c r="E560" s="6" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="561" ht="25.5" spans="1:5">
-      <c r="A561" s="11" t="s">
+      <c r="A561" s="3" t="s">
         <v>1519</v>
       </c>
       <c r="B561" t="s">
@@ -46079,15 +47432,15 @@
       <c r="C561" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D561" s="12" t="s">
+      <c r="D561" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="E561" s="13" t="s">
+      <c r="E561" s="6" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="562" spans="1:5">
-      <c r="A562" s="11" t="s">
+      <c r="A562" s="3" t="s">
         <v>1523</v>
       </c>
       <c r="B562" t="s">
@@ -46096,15 +47449,15 @@
       <c r="C562" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D562" s="12" t="s">
+      <c r="D562" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="E562" s="13" t="s">
+      <c r="E562" s="6" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="563" ht="27" spans="1:5">
-      <c r="A563" s="11" t="s">
+      <c r="A563" s="3" t="s">
         <v>1525</v>
       </c>
       <c r="B563" t="s">
@@ -46113,15 +47466,15 @@
       <c r="C563" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D563" s="17" t="s">
+      <c r="D563" s="8" t="s">
         <v>1526</v>
       </c>
-      <c r="E563" s="14" t="s">
+      <c r="E563" s="5" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="564" spans="1:5">
-      <c r="A564" s="11" t="s">
+      <c r="A564" s="3" t="s">
         <v>1528</v>
       </c>
       <c r="B564" t="s">
@@ -46130,15 +47483,15 @@
       <c r="C564" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D564" s="12" t="s">
+      <c r="D564" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="E564" s="13" t="s">
+      <c r="E564" s="6" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="565" spans="1:5">
-      <c r="A565" s="11" t="s">
+      <c r="A565" s="3" t="s">
         <v>1530</v>
       </c>
       <c r="B565" t="s">
@@ -46147,15 +47500,15 @@
       <c r="C565" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D565" s="12" t="s">
+      <c r="D565" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="E565" s="13" t="s">
+      <c r="E565" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="566" spans="1:5">
-      <c r="A566" s="11" t="s">
+      <c r="A566" s="3" t="s">
         <v>1532</v>
       </c>
       <c r="B566" t="s">
@@ -46164,15 +47517,15 @@
       <c r="C566" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D566" s="12" t="s">
+      <c r="D566" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="E566" s="13" t="s">
+      <c r="E566" s="6" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="567" spans="1:5">
-      <c r="A567" s="11" t="s">
+      <c r="A567" s="3" t="s">
         <v>1535</v>
       </c>
       <c r="B567" t="s">
@@ -46181,15 +47534,15 @@
       <c r="C567" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D567" s="11" t="s">
+      <c r="D567" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="E567" s="13" t="s">
+      <c r="E567" s="6" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="568" spans="1:5">
-      <c r="A568" s="11" t="s">
+      <c r="A568" s="3" t="s">
         <v>1537</v>
       </c>
       <c r="B568" t="s">
@@ -46198,15 +47551,15 @@
       <c r="C568" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D568" s="12" t="s">
+      <c r="D568" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="E568" s="13" t="s">
+      <c r="E568" s="6" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="569" spans="1:5">
-      <c r="A569" s="11" t="s">
+      <c r="A569" s="3" t="s">
         <v>1540</v>
       </c>
       <c r="B569" t="s">
@@ -46215,15 +47568,15 @@
       <c r="C569" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D569" s="12" t="s">
+      <c r="D569" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="E569" s="13" t="s">
+      <c r="E569" s="6" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="570" spans="1:5">
-      <c r="A570" s="11" t="s">
+      <c r="A570" s="3" t="s">
         <v>1543</v>
       </c>
       <c r="B570" t="s">
@@ -46232,15 +47585,15 @@
       <c r="C570" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D570" s="12" t="s">
+      <c r="D570" s="4" t="s">
         <v>1544</v>
       </c>
-      <c r="E570" s="13" t="s">
+      <c r="E570" s="6" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="571" spans="1:5">
-      <c r="A571" s="11" t="s">
+      <c r="A571" s="3" t="s">
         <v>1546</v>
       </c>
       <c r="B571" t="s">
@@ -46249,15 +47602,15 @@
       <c r="C571" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D571" s="12" t="s">
+      <c r="D571" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="E571" s="13" t="s">
+      <c r="E571" s="6" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="572" spans="1:5">
-      <c r="A572" s="11" t="s">
+      <c r="A572" s="3" t="s">
         <v>1549</v>
       </c>
       <c r="B572" t="s">
@@ -46266,15 +47619,15 @@
       <c r="C572" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D572" s="12" t="s">
+      <c r="D572" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="E572" s="13" t="s">
+      <c r="E572" s="6" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="573" spans="1:5">
-      <c r="A573" s="11" t="s">
+      <c r="A573" s="3" t="s">
         <v>1551</v>
       </c>
       <c r="B573" t="s">
@@ -46283,15 +47636,15 @@
       <c r="C573" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D573" s="12" t="s">
+      <c r="D573" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="E573" s="13" t="s">
+      <c r="E573" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="574" ht="27" spans="1:5">
-      <c r="A574" s="11" t="s">
+      <c r="A574" s="3" t="s">
         <v>1553</v>
       </c>
       <c r="B574" t="s">
@@ -46300,15 +47653,15 @@
       <c r="C574" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D574" s="11" t="s">
+      <c r="D574" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="E574" s="13" t="s">
+      <c r="E574" s="6" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="575" spans="1:5">
-      <c r="A575" s="11" t="s">
+      <c r="A575" s="3" t="s">
         <v>1556</v>
       </c>
       <c r="B575" t="s">
@@ -46317,15 +47670,15 @@
       <c r="C575" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D575" s="12" t="s">
+      <c r="D575" s="4" t="s">
         <v>1557</v>
       </c>
-      <c r="E575" s="13" t="s">
+      <c r="E575" s="6" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="576" spans="1:5">
-      <c r="A576" s="11" t="s">
+      <c r="A576" s="3" t="s">
         <v>1558</v>
       </c>
       <c r="B576" t="s">
@@ -46334,15 +47687,15 @@
       <c r="C576" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D576" s="12" t="s">
+      <c r="D576" s="4" t="s">
         <v>1559</v>
       </c>
-      <c r="E576" s="13" t="s">
+      <c r="E576" s="6" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="577" spans="1:5">
-      <c r="A577" s="11" t="s">
+      <c r="A577" s="3" t="s">
         <v>1561</v>
       </c>
       <c r="B577" t="s">
@@ -46351,15 +47704,15 @@
       <c r="C577" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D577" s="12" t="s">
+      <c r="D577" s="4" t="s">
         <v>1562</v>
       </c>
-      <c r="E577" s="13" t="s">
+      <c r="E577" s="6" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="578" spans="1:5">
-      <c r="A578" s="11" t="s">
+      <c r="A578" s="3" t="s">
         <v>1564</v>
       </c>
       <c r="B578" t="s">
@@ -46368,15 +47721,15 @@
       <c r="C578" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D578" s="12" t="s">
+      <c r="D578" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="E578" s="13" t="s">
+      <c r="E578" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="579" ht="54" spans="1:5">
-      <c r="A579" s="11" t="s">
+      <c r="A579" s="3" t="s">
         <v>1566</v>
       </c>
       <c r="B579" t="s">
@@ -46385,43 +47738,43 @@
       <c r="C579" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D579" s="18" t="s">
+      <c r="D579" s="7" t="s">
         <v>1567</v>
       </c>
-      <c r="E579" s="13" t="s">
+      <c r="E579" s="6" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="580" spans="1:5">
-      <c r="A580" s="11" t="s">
+      <c r="A580" s="3" t="s">
         <v>1568</v>
       </c>
       <c r="B580" t="s">
         <v>1569</v>
       </c>
-      <c r="D580" s="12" t="s">
+      <c r="D580" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="E580" s="13" t="s">
+      <c r="E580" s="6" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="581" spans="1:5">
-      <c r="A581" s="11" t="s">
+      <c r="A581" s="3" t="s">
         <v>1572</v>
       </c>
       <c r="B581" t="s">
         <v>1573</v>
       </c>
-      <c r="D581" s="12" t="s">
+      <c r="D581" s="4" t="s">
         <v>1574</v>
       </c>
-      <c r="E581" s="13" t="s">
+      <c r="E581" s="6" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="582" spans="1:4">
-      <c r="A582" s="11" t="s">
+      <c r="A582" s="3" t="s">
         <v>1576</v>
       </c>
       <c r="B582" t="s">
@@ -46430,12 +47783,12 @@
       <c r="C582" t="s">
         <v>1577</v>
       </c>
-      <c r="D582" s="12" t="s">
+      <c r="D582" s="4" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="583" spans="1:5">
-      <c r="A583" s="11" t="s">
+      <c r="A583" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="B583" t="s">
@@ -46444,15 +47797,15 @@
       <c r="C583" t="s">
         <v>1577</v>
       </c>
-      <c r="D583" s="19" t="s">
+      <c r="D583" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="E583" s="14" t="s">
+      <c r="E583" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="584" spans="1:5">
-      <c r="A584" s="11" t="s">
+      <c r="A584" s="3" t="s">
         <v>1581</v>
       </c>
       <c r="B584" t="s">
@@ -46461,15 +47814,15 @@
       <c r="C584" t="s">
         <v>1577</v>
       </c>
-      <c r="D584" s="12" t="s">
+      <c r="D584" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="E584" s="13" t="s">
+      <c r="E584" s="6" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="585" spans="1:5">
-      <c r="A585" s="11" t="s">
+      <c r="A585" s="3" t="s">
         <v>1583</v>
       </c>
       <c r="B585" t="s">
@@ -46478,15 +47831,15 @@
       <c r="C585" t="s">
         <v>1577</v>
       </c>
-      <c r="D585" s="12" t="s">
+      <c r="D585" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="E585" s="13" t="s">
+      <c r="E585" s="6" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="11" t="s">
+      <c r="A586" s="3" t="s">
         <v>1586</v>
       </c>
       <c r="B586" t="s">
@@ -46495,15 +47848,15 @@
       <c r="C586" t="s">
         <v>1577</v>
       </c>
-      <c r="D586" s="12" t="s">
+      <c r="D586" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="E586" s="13" t="s">
+      <c r="E586" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="587" spans="1:5">
-      <c r="A587" s="11" t="s">
+      <c r="A587" s="3" t="s">
         <v>1588</v>
       </c>
       <c r="B587" t="s">
@@ -46512,15 +47865,15 @@
       <c r="C587" t="s">
         <v>1589</v>
       </c>
-      <c r="D587" s="12" t="s">
+      <c r="D587" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="E587" s="13" t="s">
+      <c r="E587" s="6" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="11" t="s">
+      <c r="A588" s="3" t="s">
         <v>1592</v>
       </c>
       <c r="B588" t="s">
@@ -46529,15 +47882,15 @@
       <c r="C588" t="s">
         <v>1589</v>
       </c>
-      <c r="D588" s="11" t="s">
+      <c r="D588" s="3" t="s">
         <v>1593</v>
       </c>
-      <c r="E588" s="13" t="s">
+      <c r="E588" s="6" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="589" spans="1:5">
-      <c r="A589" s="11" t="s">
+      <c r="A589" s="3" t="s">
         <v>1594</v>
       </c>
       <c r="B589" t="s">
@@ -46546,15 +47899,15 @@
       <c r="C589" t="s">
         <v>1589</v>
       </c>
-      <c r="D589" s="12" t="s">
+      <c r="D589" s="4" t="s">
         <v>1595</v>
       </c>
-      <c r="E589" s="13" t="s">
+      <c r="E589" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="11" t="s">
+      <c r="A590" s="3" t="s">
         <v>1596</v>
       </c>
       <c r="B590" t="s">
@@ -46563,15 +47916,15 @@
       <c r="C590" t="s">
         <v>1589</v>
       </c>
-      <c r="D590" s="12" t="s">
+      <c r="D590" s="4" t="s">
         <v>1597</v>
       </c>
-      <c r="E590" s="13" t="s">
+      <c r="E590" s="6" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="591" spans="1:5">
-      <c r="A591" s="11" t="s">
+      <c r="A591" s="3" t="s">
         <v>1599</v>
       </c>
       <c r="B591" t="s">
@@ -46580,15 +47933,15 @@
       <c r="C591" t="s">
         <v>1589</v>
       </c>
-      <c r="D591" s="12" t="s">
+      <c r="D591" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="E591" s="13" t="s">
+      <c r="E591" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="592" spans="1:5">
-      <c r="A592" s="11" t="s">
+      <c r="A592" s="3" t="s">
         <v>1601</v>
       </c>
       <c r="B592" t="s">
@@ -46597,15 +47950,15 @@
       <c r="C592" t="s">
         <v>1589</v>
       </c>
-      <c r="D592" s="12" t="s">
+      <c r="D592" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="E592" s="14" t="s">
+      <c r="E592" s="5" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="593" spans="1:5">
-      <c r="A593" s="11" t="s">
+      <c r="A593" s="3" t="s">
         <v>1603</v>
       </c>
       <c r="B593" t="s">
@@ -46614,15 +47967,15 @@
       <c r="C593" t="s">
         <v>1577</v>
       </c>
-      <c r="D593" s="12" t="s">
+      <c r="D593" s="4" t="s">
         <v>1604</v>
       </c>
-      <c r="E593" s="13" t="s">
+      <c r="E593" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="594" spans="1:5">
-      <c r="A594" s="11" t="s">
+      <c r="A594" s="3" t="s">
         <v>1605</v>
       </c>
       <c r="B594" t="s">
@@ -46631,15 +47984,15 @@
       <c r="C594" t="s">
         <v>1589</v>
       </c>
-      <c r="D594" s="20" t="s">
+      <c r="D594" s="10" t="s">
         <v>1606</v>
       </c>
-      <c r="E594" s="13" t="s">
+      <c r="E594" s="6" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="595" spans="1:5">
-      <c r="A595" s="11" t="s">
+      <c r="A595" s="3" t="s">
         <v>1607</v>
       </c>
       <c r="B595" t="s">
@@ -46648,15 +48001,15 @@
       <c r="C595" t="s">
         <v>1589</v>
       </c>
-      <c r="D595" s="12" t="s">
+      <c r="D595" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="E595" s="13" t="s">
+      <c r="E595" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="596" ht="27" spans="1:5">
-      <c r="A596" s="11" t="s">
+      <c r="A596" s="3" t="s">
         <v>1609</v>
       </c>
       <c r="B596" t="s">
@@ -46665,15 +48018,15 @@
       <c r="C596" t="s">
         <v>1610</v>
       </c>
-      <c r="D596" s="11" t="s">
+      <c r="D596" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="E596" s="14" t="s">
+      <c r="E596" s="5" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="597" spans="1:5">
-      <c r="A597" s="11" t="s">
+      <c r="A597" s="3" t="s">
         <v>1613</v>
       </c>
       <c r="B597" t="s">
@@ -46682,15 +48035,15 @@
       <c r="C597" t="s">
         <v>1610</v>
       </c>
-      <c r="D597" s="12" t="s">
+      <c r="D597" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="E597" s="14" t="s">
+      <c r="E597" s="5" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="598" spans="1:5">
-      <c r="A598" s="11" t="s">
+      <c r="A598" s="3" t="s">
         <v>1615</v>
       </c>
       <c r="B598" t="s">
@@ -46699,15 +48052,15 @@
       <c r="C598" t="s">
         <v>1610</v>
       </c>
-      <c r="D598" s="12" t="s">
+      <c r="D598" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="E598" s="14" t="s">
+      <c r="E598" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="599" spans="1:5">
-      <c r="A599" s="11" t="s">
+      <c r="A599" s="3" t="s">
         <v>1617</v>
       </c>
       <c r="B599" t="s">
@@ -46716,15 +48069,15 @@
       <c r="C599" t="s">
         <v>1610</v>
       </c>
-      <c r="D599" s="12" t="s">
+      <c r="D599" s="4" t="s">
         <v>1618</v>
       </c>
-      <c r="E599" s="13" t="s">
+      <c r="E599" s="6" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="600" spans="1:5">
-      <c r="A600" s="11" t="s">
+      <c r="A600" s="3" t="s">
         <v>1620</v>
       </c>
       <c r="B600" t="s">
@@ -46733,15 +48086,15 @@
       <c r="C600" t="s">
         <v>1610</v>
       </c>
-      <c r="D600" s="12" t="s">
+      <c r="D600" s="4" t="s">
         <v>1621</v>
       </c>
-      <c r="E600" s="13" t="s">
+      <c r="E600" s="6" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="11" t="s">
+      <c r="A601" s="3" t="s">
         <v>1623</v>
       </c>
       <c r="B601" t="s">
@@ -46750,15 +48103,15 @@
       <c r="C601" t="s">
         <v>1610</v>
       </c>
-      <c r="D601" s="12" t="s">
+      <c r="D601" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="E601" s="13" t="s">
+      <c r="E601" s="6" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="602" spans="1:5">
-      <c r="A602" s="11" t="s">
+      <c r="A602" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="B602" t="s">
@@ -46767,15 +48120,15 @@
       <c r="C602" t="s">
         <v>1610</v>
       </c>
-      <c r="D602" s="12" t="s">
+      <c r="D602" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="E602" s="14" t="s">
+      <c r="E602" s="5" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="603" ht="25.5" spans="1:5">
-      <c r="A603" s="11" t="s">
+      <c r="A603" s="3" t="s">
         <v>1628</v>
       </c>
       <c r="B603" t="s">
@@ -46784,15 +48137,15 @@
       <c r="C603" t="s">
         <v>1610</v>
       </c>
-      <c r="D603" s="12" t="s">
+      <c r="D603" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="E603" s="15" t="s">
+      <c r="E603" s="9" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="604" spans="1:5">
-      <c r="A604" s="11" t="s">
+      <c r="A604" s="3" t="s">
         <v>1631</v>
       </c>
       <c r="B604" t="s">
@@ -46801,15 +48154,15 @@
       <c r="C604" t="s">
         <v>1610</v>
       </c>
-      <c r="D604" s="12" t="s">
+      <c r="D604" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="E604" s="14" t="s">
+      <c r="E604" s="5" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="605" spans="1:5">
-      <c r="A605" s="11" t="s">
+      <c r="A605" s="3" t="s">
         <v>1634</v>
       </c>
       <c r="B605" t="s">
@@ -46818,15 +48171,15 @@
       <c r="C605" t="s">
         <v>1610</v>
       </c>
-      <c r="D605" s="12" t="s">
+      <c r="D605" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="E605" s="13" t="s">
+      <c r="E605" s="6" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="606" spans="1:4">
-      <c r="A606" s="11" t="s">
+      <c r="A606" s="3" t="s">
         <v>1637</v>
       </c>
       <c r="B606" t="s">
@@ -46835,12 +48188,12 @@
       <c r="C606" t="s">
         <v>1638</v>
       </c>
-      <c r="D606" s="12" t="s">
+      <c r="D606" s="4" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="607" spans="1:5">
-      <c r="A607" s="11" t="s">
+      <c r="A607" s="3" t="s">
         <v>1640</v>
       </c>
       <c r="B607" t="s">
@@ -46849,15 +48202,15 @@
       <c r="C607" t="s">
         <v>1638</v>
       </c>
-      <c r="D607" s="12" t="s">
+      <c r="D607" s="4" t="s">
         <v>1641</v>
       </c>
-      <c r="E607" s="13" t="s">
+      <c r="E607" s="6" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="11" t="s">
+      <c r="A608" s="3" t="s">
         <v>1642</v>
       </c>
       <c r="B608" t="s">
@@ -46866,7 +48219,7 @@
       <c r="C608" t="s">
         <v>1643</v>
       </c>
-      <c r="D608" s="12" t="s">
+      <c r="D608" s="4" t="s">
         <v>1644</v>
       </c>
       <c r="E608" t="s">
@@ -46874,7 +48227,7 @@
       </c>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="11" t="s">
+      <c r="A609" s="3" t="s">
         <v>1646</v>
       </c>
       <c r="B609" t="s">
@@ -46883,15 +48236,15 @@
       <c r="C609" t="s">
         <v>1643</v>
       </c>
-      <c r="D609" s="12" t="s">
+      <c r="D609" s="4" t="s">
         <v>1647</v>
       </c>
-      <c r="E609" s="13" t="s">
+      <c r="E609" s="6" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="11" t="s">
+      <c r="A610" s="3" t="s">
         <v>1649</v>
       </c>
       <c r="B610" t="s">
@@ -46900,15 +48253,15 @@
       <c r="C610" t="s">
         <v>1643</v>
       </c>
-      <c r="D610" s="12" t="s">
+      <c r="D610" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="E610" s="13" t="s">
+      <c r="E610" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="611" spans="1:5">
-      <c r="A611" s="11" t="s">
+      <c r="A611" s="3" t="s">
         <v>1651</v>
       </c>
       <c r="B611" t="s">
@@ -46917,15 +48270,15 @@
       <c r="C611" t="s">
         <v>1643</v>
       </c>
-      <c r="D611" s="12" t="s">
+      <c r="D611" s="4" t="s">
         <v>1652</v>
       </c>
-      <c r="E611" s="13" t="s">
+      <c r="E611" s="6" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="11" t="s">
+      <c r="A612" s="3" t="s">
         <v>1653</v>
       </c>
       <c r="B612" t="s">
@@ -46934,7 +48287,7 @@
       <c r="C612" t="s">
         <v>1654</v>
       </c>
-      <c r="D612" s="12" t="s">
+      <c r="D612" s="4" t="s">
         <v>1655</v>
       </c>
       <c r="E612" t="s">
@@ -46942,242 +48295,242 @@
       </c>
     </row>
     <row r="613" spans="1:4">
-      <c r="A613" s="11" t="s">
+      <c r="A613" s="3" t="s">
         <v>1657</v>
       </c>
-      <c r="B613" s="11" t="s">
+      <c r="B613" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C613" s="11" t="s">
+      <c r="C613" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D613" s="12" t="s">
+      <c r="D613" s="4" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="614" ht="67.5" spans="1:5">
-      <c r="A614" s="11" t="s">
+      <c r="A614" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="B614" s="11" t="s">
+      <c r="B614" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C614" s="11" t="s">
+      <c r="C614" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="D614" s="18" t="s">
+      <c r="D614" s="7" t="s">
         <v>1662</v>
       </c>
-      <c r="E614" s="13" t="s">
+      <c r="E614" s="6" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="615" spans="1:5">
-      <c r="A615" s="11" t="s">
+      <c r="A615" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="B615" s="11" t="s">
+      <c r="B615" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C615" s="11" t="s">
+      <c r="C615" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="D615" s="12" t="s">
+      <c r="D615" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="E615" s="13" t="s">
+      <c r="E615" s="6" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="11" t="s">
+      <c r="A616" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="B616" s="11" t="s">
+      <c r="B616" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C616" s="11" t="s">
+      <c r="C616" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="D616" s="12" t="s">
+      <c r="D616" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="E616" s="13" t="s">
+      <c r="E616" s="6" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="617" ht="27" spans="1:5">
-      <c r="A617" s="11" t="s">
+      <c r="A617" s="3" t="s">
         <v>1670</v>
       </c>
-      <c r="B617" s="11" t="s">
+      <c r="B617" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C617" s="11" t="s">
+      <c r="C617" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="D617" s="11" t="s">
+      <c r="D617" s="3" t="s">
         <v>1671</v>
       </c>
-      <c r="E617" s="14" t="s">
+      <c r="E617" s="5" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="11" t="s">
+      <c r="A618" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="B618" s="11" t="s">
+      <c r="B618" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C618" s="11" t="s">
+      <c r="C618" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="D618" s="12" t="s">
+      <c r="D618" s="4" t="s">
         <v>1674</v>
       </c>
-      <c r="E618" s="14" t="s">
+      <c r="E618" s="5" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="619" spans="1:5">
-      <c r="A619" s="11" t="s">
+      <c r="A619" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="B619" s="11" t="s">
+      <c r="B619" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C619" s="11" t="s">
+      <c r="C619" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="D619" s="12" t="s">
+      <c r="D619" s="4" t="s">
         <v>1677</v>
       </c>
-      <c r="E619" s="13" t="s">
+      <c r="E619" s="6" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="11" t="s">
+      <c r="A620" s="3" t="s">
         <v>1679</v>
       </c>
-      <c r="B620" s="11" t="s">
+      <c r="B620" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C620" s="11" t="s">
+      <c r="C620" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D620" s="12" t="s">
+      <c r="D620" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="E620" s="13" t="s">
+      <c r="E620" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="11" t="s">
+      <c r="A621" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="B621" s="11" t="s">
+      <c r="B621" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C621" s="11" t="s">
+      <c r="C621" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D621" s="12" t="s">
+      <c r="D621" s="4" t="s">
         <v>1682</v>
       </c>
-      <c r="E621" s="13" t="s">
+      <c r="E621" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="11" t="s">
+      <c r="A622" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="B622" s="11" t="s">
+      <c r="B622" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C622" s="11" t="s">
+      <c r="C622" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D622" s="12" t="s">
+      <c r="D622" s="4" t="s">
         <v>1684</v>
       </c>
-      <c r="E622" s="13" t="s">
+      <c r="E622" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="623" spans="1:5">
-      <c r="A623" s="11" t="s">
+      <c r="A623" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="B623" s="11" t="s">
+      <c r="B623" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C623" s="11" t="s">
+      <c r="C623" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D623" s="12" t="s">
+      <c r="D623" s="4" t="s">
         <v>1686</v>
       </c>
-      <c r="E623" s="13" t="s">
+      <c r="E623" s="6" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="11" t="s">
+      <c r="A624" s="3" t="s">
         <v>1688</v>
       </c>
-      <c r="B624" s="11" t="s">
+      <c r="B624" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C624" s="11" t="s">
+      <c r="C624" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="D624" s="12" t="s">
+      <c r="D624" s="4" t="s">
         <v>1689</v>
       </c>
-      <c r="E624" s="13" t="s">
+      <c r="E624" s="6" t="s">
         <v>1690</v>
       </c>
     </row>
     <row r="625" ht="27" spans="1:5">
-      <c r="A625" s="11" t="s">
+      <c r="A625" s="3" t="s">
         <v>1691</v>
       </c>
       <c r="B625" t="s">
         <v>6</v>
       </c>
-      <c r="C625" s="11" t="s">
+      <c r="C625" s="3" t="s">
         <v>1692</v>
       </c>
-      <c r="D625" s="11" t="s">
+      <c r="D625" s="3" t="s">
         <v>1693</v>
       </c>
-      <c r="E625" s="13" t="s">
+      <c r="E625" s="6" t="s">
         <v>1694</v>
       </c>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="11" t="s">
+      <c r="A626" s="3" t="s">
         <v>1695</v>
       </c>
       <c r="B626" t="s">
         <v>6</v>
       </c>
-      <c r="C626" s="11" t="s">
+      <c r="C626" s="3" t="s">
         <v>1692</v>
       </c>
-      <c r="D626" s="12" t="s">
+      <c r="D626" s="4" t="s">
         <v>1696</v>
       </c>
-      <c r="E626" s="14" t="s">
+      <c r="E626" s="5" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="627" spans="1:4">
-      <c r="A627" s="11" t="s">
+      <c r="A627" s="3" t="s">
         <v>1697</v>
       </c>
       <c r="B627" t="s">
@@ -47186,12 +48539,12 @@
       <c r="C627" t="s">
         <v>1699</v>
       </c>
-      <c r="D627" s="12" t="s">
+      <c r="D627" s="4" t="s">
         <v>1700</v>
       </c>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="11" t="s">
+      <c r="A628" s="3" t="s">
         <v>1701</v>
       </c>
       <c r="B628" t="s">
@@ -47200,15 +48553,15 @@
       <c r="C628" t="s">
         <v>1699</v>
       </c>
-      <c r="D628" s="12" t="s">
+      <c r="D628" s="4" t="s">
         <v>1702</v>
       </c>
-      <c r="E628" s="13" t="s">
+      <c r="E628" s="6" t="s">
         <v>1703</v>
       </c>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="11" t="s">
+      <c r="A629" s="3" t="s">
         <v>1704</v>
       </c>
       <c r="B629" t="s">
@@ -47217,15 +48570,15 @@
       <c r="C629" t="s">
         <v>1699</v>
       </c>
-      <c r="D629" s="12" t="s">
+      <c r="D629" s="4" t="s">
         <v>1705</v>
       </c>
-      <c r="E629" s="13" t="s">
+      <c r="E629" s="6" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="11" t="s">
+      <c r="A630" s="3" t="s">
         <v>1707</v>
       </c>
       <c r="B630" t="s">
@@ -47234,15 +48587,15 @@
       <c r="C630" t="s">
         <v>1699</v>
       </c>
-      <c r="D630" s="12" t="s">
+      <c r="D630" s="4" t="s">
         <v>1708</v>
       </c>
-      <c r="E630" s="14" t="s">
+      <c r="E630" s="5" t="s">
         <v>1709</v>
       </c>
     </row>
     <row r="631" spans="1:5">
-      <c r="A631" s="11" t="s">
+      <c r="A631" s="3" t="s">
         <v>1710</v>
       </c>
       <c r="B631" t="s">
@@ -47251,15 +48604,15 @@
       <c r="C631" t="s">
         <v>1699</v>
       </c>
-      <c r="D631" s="12" t="s">
+      <c r="D631" s="4" t="s">
         <v>1711</v>
       </c>
-      <c r="E631" s="13" t="s">
+      <c r="E631" s="6" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="11" t="s">
+      <c r="A632" s="3" t="s">
         <v>1712</v>
       </c>
       <c r="B632" t="s">
@@ -47268,41 +48621,41 @@
       <c r="C632" t="s">
         <v>1699</v>
       </c>
-      <c r="D632" s="12" t="s">
+      <c r="D632" s="4" t="s">
         <v>1713</v>
       </c>
-      <c r="E632" s="13" t="s">
+      <c r="E632" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="11" t="s">
+      <c r="A633" s="3" t="s">
         <v>1714</v>
       </c>
       <c r="B633" t="s">
         <v>6</v>
       </c>
-      <c r="C633" s="14"/>
-      <c r="D633" s="12" t="s">
+      <c r="C633" s="5"/>
+      <c r="D633" s="4" t="s">
         <v>1715</v>
       </c>
-      <c r="E633" s="14" t="s">
+      <c r="E633" s="5" t="s">
         <v>1716</v>
       </c>
     </row>
     <row r="634" spans="1:4">
-      <c r="A634" s="11" t="s">
+      <c r="A634" s="3" t="s">
         <v>1717</v>
       </c>
       <c r="B634" t="s">
         <v>6</v>
       </c>
-      <c r="D634" s="12" t="s">
+      <c r="D634" s="4" t="s">
         <v>1718</v>
       </c>
     </row>
     <row r="635" spans="1:4">
-      <c r="A635" s="11" t="s">
+      <c r="A635" s="3" t="s">
         <v>1719</v>
       </c>
       <c r="B635" t="s">
@@ -47311,12 +48664,12 @@
       <c r="C635" t="s">
         <v>1720</v>
       </c>
-      <c r="D635" s="12" t="s">
+      <c r="D635" s="4" t="s">
         <v>1721</v>
       </c>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="11" t="s">
+      <c r="A636" s="3" t="s">
         <v>1722</v>
       </c>
       <c r="B636" t="s">
@@ -47325,15 +48678,15 @@
       <c r="C636" t="s">
         <v>1720</v>
       </c>
-      <c r="D636" s="12" t="s">
+      <c r="D636" s="4" t="s">
         <v>1723</v>
       </c>
-      <c r="E636" s="13" t="s">
+      <c r="E636" s="6" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="11" t="s">
+      <c r="A637" s="3" t="s">
         <v>1724</v>
       </c>
       <c r="B637" t="s">
@@ -47342,15 +48695,15 @@
       <c r="C637" t="s">
         <v>1720</v>
       </c>
-      <c r="D637" s="12" t="s">
+      <c r="D637" s="4" t="s">
         <v>1725</v>
       </c>
-      <c r="E637" s="13" t="s">
+      <c r="E637" s="6" t="s">
         <v>1726</v>
       </c>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="11" t="s">
+      <c r="A638" s="3" t="s">
         <v>1727</v>
       </c>
       <c r="B638" t="s">
@@ -47359,15 +48712,15 @@
       <c r="C638" t="s">
         <v>1720</v>
       </c>
-      <c r="D638" s="12" t="s">
+      <c r="D638" s="4" t="s">
         <v>1728</v>
       </c>
-      <c r="E638" s="13" t="s">
+      <c r="E638" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="639" ht="26.25" spans="1:5">
-      <c r="A639" s="11" t="s">
+      <c r="A639" s="3" t="s">
         <v>1729</v>
       </c>
       <c r="B639" t="s">
@@ -47376,15 +48729,15 @@
       <c r="C639" t="s">
         <v>191</v>
       </c>
-      <c r="D639" s="11" t="s">
+      <c r="D639" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="E639" s="13" t="s">
+      <c r="E639" s="6" t="s">
         <v>1731</v>
       </c>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="11" t="s">
+      <c r="A640" s="3" t="s">
         <v>1732</v>
       </c>
       <c r="B640" t="s">
@@ -47393,15 +48746,15 @@
       <c r="C640" t="s">
         <v>191</v>
       </c>
-      <c r="D640" s="12" t="s">
+      <c r="D640" s="4" t="s">
         <v>1733</v>
       </c>
-      <c r="E640" s="13" t="s">
+      <c r="E640" s="6" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="641" spans="1:5">
-      <c r="A641" s="11" t="s">
+      <c r="A641" s="3" t="s">
         <v>1735</v>
       </c>
       <c r="B641" t="s">
@@ -47410,15 +48763,15 @@
       <c r="C641" t="s">
         <v>191</v>
       </c>
-      <c r="D641" s="12" t="s">
+      <c r="D641" s="4" t="s">
         <v>1736</v>
       </c>
-      <c r="E641" s="13" t="s">
+      <c r="E641" s="6" t="s">
         <v>1737</v>
       </c>
     </row>
     <row r="642" spans="1:5">
-      <c r="A642" s="11" t="s">
+      <c r="A642" s="3" t="s">
         <v>1738</v>
       </c>
       <c r="B642" t="s">
@@ -47427,15 +48780,15 @@
       <c r="C642" t="s">
         <v>191</v>
       </c>
-      <c r="D642" s="12" t="s">
+      <c r="D642" s="4" t="s">
         <v>1739</v>
       </c>
-      <c r="E642" s="13" t="s">
+      <c r="E642" s="6" t="s">
         <v>1740</v>
       </c>
     </row>
     <row r="643" spans="1:5">
-      <c r="A643" s="11" t="s">
+      <c r="A643" s="3" t="s">
         <v>1741</v>
       </c>
       <c r="B643" t="s">
@@ -47444,15 +48797,15 @@
       <c r="C643" t="s">
         <v>191</v>
       </c>
-      <c r="D643" s="12" t="s">
+      <c r="D643" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="E643" s="13" t="s">
+      <c r="E643" s="6" t="s">
         <v>1743</v>
       </c>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="11" t="s">
+      <c r="A644" s="3" t="s">
         <v>1744</v>
       </c>
       <c r="B644" t="s">
@@ -47461,15 +48814,15 @@
       <c r="C644" t="s">
         <v>191</v>
       </c>
-      <c r="D644" s="12" t="s">
+      <c r="D644" s="4" t="s">
         <v>1745</v>
       </c>
-      <c r="E644" s="13" t="s">
+      <c r="E644" s="6" t="s">
         <v>1746</v>
       </c>
     </row>
     <row r="645" spans="1:5">
-      <c r="A645" s="11" t="s">
+      <c r="A645" s="3" t="s">
         <v>1747</v>
       </c>
       <c r="B645" t="s">
@@ -47478,15 +48831,15 @@
       <c r="C645" t="s">
         <v>191</v>
       </c>
-      <c r="D645" s="12" t="s">
+      <c r="D645" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="E645" s="13" t="s">
+      <c r="E645" s="6" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="646" spans="1:5">
-      <c r="A646" s="11" t="s">
+      <c r="A646" s="3" t="s">
         <v>1750</v>
       </c>
       <c r="B646" t="s">
@@ -47495,15 +48848,15 @@
       <c r="C646" t="s">
         <v>191</v>
       </c>
-      <c r="D646" s="12" t="s">
+      <c r="D646" s="4" t="s">
         <v>1751</v>
       </c>
-      <c r="E646" s="13" t="s">
+      <c r="E646" s="6" t="s">
         <v>1752</v>
       </c>
     </row>
     <row r="647" spans="1:5">
-      <c r="A647" s="11" t="s">
+      <c r="A647" s="3" t="s">
         <v>1753</v>
       </c>
       <c r="B647" t="s">
@@ -47512,15 +48865,15 @@
       <c r="C647" t="s">
         <v>191</v>
       </c>
-      <c r="D647" s="12" t="s">
+      <c r="D647" s="4" t="s">
         <v>1754</v>
       </c>
-      <c r="E647" s="13" t="s">
+      <c r="E647" s="6" t="s">
         <v>1755</v>
       </c>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="11" t="s">
+      <c r="A648" s="3" t="s">
         <v>1756</v>
       </c>
       <c r="B648" t="s">
@@ -47529,15 +48882,15 @@
       <c r="C648" t="s">
         <v>191</v>
       </c>
-      <c r="D648" s="12" t="s">
+      <c r="D648" s="4" t="s">
         <v>1757</v>
       </c>
-      <c r="E648" s="13" t="s">
+      <c r="E648" s="6" t="s">
         <v>1758</v>
       </c>
     </row>
     <row r="649" spans="1:5">
-      <c r="A649" s="11" t="s">
+      <c r="A649" s="3" t="s">
         <v>1759</v>
       </c>
       <c r="B649" t="s">
@@ -47546,15 +48899,15 @@
       <c r="C649" t="s">
         <v>191</v>
       </c>
-      <c r="D649" s="12" t="s">
+      <c r="D649" s="4" t="s">
         <v>1760</v>
       </c>
-      <c r="E649" s="13" t="s">
+      <c r="E649" s="6" t="s">
         <v>1761</v>
       </c>
     </row>
     <row r="650" spans="1:5">
-      <c r="A650" s="11" t="s">
+      <c r="A650" s="3" t="s">
         <v>1762</v>
       </c>
       <c r="B650" t="s">
@@ -47563,15 +48916,15 @@
       <c r="C650" t="s">
         <v>191</v>
       </c>
-      <c r="D650" s="12" t="s">
+      <c r="D650" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="E650" s="13" t="s">
+      <c r="E650" s="6" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="651" spans="1:5">
-      <c r="A651" s="11" t="s">
+      <c r="A651" s="3" t="s">
         <v>1765</v>
       </c>
       <c r="B651" t="s">
@@ -47580,15 +48933,15 @@
       <c r="C651" t="s">
         <v>191</v>
       </c>
-      <c r="D651" s="12" t="s">
+      <c r="D651" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="E651" s="13" t="s">
+      <c r="E651" s="6" t="s">
         <v>1767</v>
       </c>
     </row>
     <row r="652" spans="1:4">
-      <c r="A652" s="11" t="s">
+      <c r="A652" s="3" t="s">
         <v>1768</v>
       </c>
       <c r="B652" t="s">
@@ -47597,12 +48950,12 @@
       <c r="C652" t="s">
         <v>191</v>
       </c>
-      <c r="D652" s="12" t="s">
+      <c r="D652" s="4" t="s">
         <v>1769</v>
       </c>
     </row>
     <row r="653" spans="1:5">
-      <c r="A653" s="11" t="s">
+      <c r="A653" s="3" t="s">
         <v>1770</v>
       </c>
       <c r="B653" t="s">
@@ -47611,15 +48964,15 @@
       <c r="C653" t="s">
         <v>191</v>
       </c>
-      <c r="D653" s="12" t="s">
+      <c r="D653" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="E653" s="13" t="s">
+      <c r="E653" s="6" t="s">
         <v>1772</v>
       </c>
     </row>
     <row r="654" spans="1:4">
-      <c r="A654" s="11" t="s">
+      <c r="A654" s="3" t="s">
         <v>1773</v>
       </c>
       <c r="B654" t="s">
@@ -47628,12 +48981,12 @@
       <c r="C654" t="s">
         <v>1774</v>
       </c>
-      <c r="D654" s="11" t="s">
+      <c r="D654" s="3" t="s">
         <v>1775</v>
       </c>
     </row>
     <row r="655" spans="1:4">
-      <c r="A655" s="11" t="s">
+      <c r="A655" s="3" t="s">
         <v>1776</v>
       </c>
       <c r="B655" t="s">
@@ -47642,12 +48995,12 @@
       <c r="C655" t="s">
         <v>1774</v>
       </c>
-      <c r="D655" s="11" t="s">
+      <c r="D655" s="3" t="s">
         <v>1777</v>
       </c>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="11" t="s">
+      <c r="A656" s="3" t="s">
         <v>1778</v>
       </c>
       <c r="B656" t="s">
@@ -47656,15 +49009,15 @@
       <c r="C656" t="s">
         <v>1774</v>
       </c>
-      <c r="D656" s="12" t="s">
+      <c r="D656" s="4" t="s">
         <v>1779</v>
       </c>
-      <c r="E656" s="13" t="s">
+      <c r="E656" s="6" t="s">
         <v>1780</v>
       </c>
     </row>
     <row r="657" ht="26.25" spans="1:5">
-      <c r="A657" s="11" t="s">
+      <c r="A657" s="3" t="s">
         <v>1781</v>
       </c>
       <c r="B657" t="s">
@@ -47673,15 +49026,15 @@
       <c r="C657" t="s">
         <v>191</v>
       </c>
-      <c r="D657" s="11" t="s">
+      <c r="D657" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="E657" s="13" t="s">
+      <c r="E657" s="6" t="s">
         <v>1783</v>
       </c>
     </row>
     <row r="658" spans="1:5">
-      <c r="A658" s="11" t="s">
+      <c r="A658" s="3" t="s">
         <v>1784</v>
       </c>
       <c r="B658" t="s">
@@ -47690,15 +49043,15 @@
       <c r="C658" t="s">
         <v>191</v>
       </c>
-      <c r="D658" s="12" t="s">
+      <c r="D658" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="E658" s="13" t="s">
+      <c r="E658" s="6" t="s">
         <v>1786</v>
       </c>
     </row>
     <row r="659" spans="1:5">
-      <c r="A659" s="11" t="s">
+      <c r="A659" s="3" t="s">
         <v>1787</v>
       </c>
       <c r="B659" t="s">
@@ -47707,15 +49060,15 @@
       <c r="C659" t="s">
         <v>191</v>
       </c>
-      <c r="D659" s="12" t="s">
+      <c r="D659" s="4" t="s">
         <v>1788</v>
       </c>
-      <c r="E659" s="13" t="s">
+      <c r="E659" s="6" t="s">
         <v>1789</v>
       </c>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="11" t="s">
+      <c r="A660" s="3" t="s">
         <v>1790</v>
       </c>
       <c r="B660" t="s">
@@ -47724,15 +49077,15 @@
       <c r="C660" t="s">
         <v>191</v>
       </c>
-      <c r="D660" s="16" t="s">
+      <c r="D660" s="4" t="s">
         <v>1791</v>
       </c>
-      <c r="E660" s="13" t="s">
+      <c r="E660" s="6" t="s">
         <v>1780</v>
       </c>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="11" t="s">
+      <c r="A661" s="3" t="s">
         <v>1792</v>
       </c>
       <c r="B661" t="s">
@@ -47741,15 +49094,15 @@
       <c r="C661" t="s">
         <v>192</v>
       </c>
-      <c r="D661" s="12" t="s">
+      <c r="D661" s="4" t="s">
         <v>1793</v>
       </c>
-      <c r="E661" s="14" t="s">
+      <c r="E661" s="5" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="662" spans="1:5">
-      <c r="A662" s="11" t="s">
+      <c r="A662" s="3" t="s">
         <v>1795</v>
       </c>
       <c r="B662" t="s">
@@ -47758,15 +49111,15 @@
       <c r="C662" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D662" s="12" t="s">
+      <c r="D662" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="E662" s="13" t="s">
+      <c r="E662" s="6" t="s">
         <v>1797</v>
       </c>
     </row>
     <row r="663" spans="1:5">
-      <c r="A663" s="11" t="s">
+      <c r="A663" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="B663" t="s">
@@ -47775,15 +49128,15 @@
       <c r="C663" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D663" s="12" t="s">
+      <c r="D663" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="E663" s="13" t="s">
+      <c r="E663" s="6" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="664" ht="27" spans="1:5">
-      <c r="A664" s="11" t="s">
+      <c r="A664" s="3" t="s">
         <v>1801</v>
       </c>
       <c r="B664" t="s">
@@ -47792,15 +49145,15 @@
       <c r="C664" t="s">
         <v>191</v>
       </c>
-      <c r="D664" s="12" t="s">
+      <c r="D664" s="4" t="s">
         <v>1802</v>
       </c>
-      <c r="E664" s="18" t="s">
+      <c r="E664" s="7" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="11" t="s">
+      <c r="A665" s="3" t="s">
         <v>1804</v>
       </c>
       <c r="B665" t="s">
@@ -47809,15 +49162,15 @@
       <c r="C665" t="s">
         <v>191</v>
       </c>
-      <c r="D665" s="12" t="s">
+      <c r="D665" s="4" t="s">
         <v>1805</v>
       </c>
-      <c r="E665" s="13" t="s">
+      <c r="E665" s="6" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="11" t="s">
+      <c r="A666" s="3" t="s">
         <v>1807</v>
       </c>
       <c r="B666" t="s">
@@ -47826,15 +49179,15 @@
       <c r="C666" t="s">
         <v>191</v>
       </c>
-      <c r="D666" s="12" t="s">
+      <c r="D666" s="4" t="s">
         <v>1808</v>
       </c>
-      <c r="E666" s="13" t="s">
+      <c r="E666" s="6" t="s">
         <v>1809</v>
       </c>
     </row>
     <row r="667" spans="1:5">
-      <c r="A667" s="11" t="s">
+      <c r="A667" s="3" t="s">
         <v>1810</v>
       </c>
       <c r="B667" t="s">
@@ -47843,15 +49196,15 @@
       <c r="C667" t="s">
         <v>191</v>
       </c>
-      <c r="D667" s="12" t="s">
+      <c r="D667" s="4" t="s">
         <v>1811</v>
       </c>
-      <c r="E667" s="13" t="s">
+      <c r="E667" s="6" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="668" spans="1:4">
-      <c r="A668" s="11" t="s">
+      <c r="A668" s="3" t="s">
         <v>1812</v>
       </c>
       <c r="B668" t="s">
@@ -47860,12 +49213,12 @@
       <c r="C668" t="s">
         <v>191</v>
       </c>
-      <c r="D668" s="12" t="s">
+      <c r="D668" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
     <row r="669" spans="1:5">
-      <c r="A669" s="11" t="s">
+      <c r="A669" s="3" t="s">
         <v>1814</v>
       </c>
       <c r="B669" t="s">
@@ -47874,15 +49227,15 @@
       <c r="C669" t="s">
         <v>191</v>
       </c>
-      <c r="D669" s="12" t="s">
+      <c r="D669" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="E669" s="13" t="s">
+      <c r="E669" s="6" t="s">
         <v>1816</v>
       </c>
     </row>
     <row r="670" spans="1:5">
-      <c r="A670" s="11" t="s">
+      <c r="A670" s="3" t="s">
         <v>1817</v>
       </c>
       <c r="B670" t="s">
@@ -47891,15 +49244,15 @@
       <c r="C670" t="s">
         <v>191</v>
       </c>
-      <c r="D670" s="12" t="s">
+      <c r="D670" s="4" t="s">
         <v>1818</v>
       </c>
-      <c r="E670" s="13" t="s">
+      <c r="E670" s="6" t="s">
         <v>1816</v>
       </c>
     </row>
     <row r="671" spans="1:5">
-      <c r="A671" s="11" t="s">
+      <c r="A671" s="3" t="s">
         <v>1819</v>
       </c>
       <c r="B671" t="s">
@@ -47908,15 +49261,15 @@
       <c r="C671" t="s">
         <v>191</v>
       </c>
-      <c r="D671" s="12" t="s">
+      <c r="D671" s="4" t="s">
         <v>1820</v>
       </c>
-      <c r="E671" s="13" t="s">
+      <c r="E671" s="6" t="s">
         <v>1821</v>
       </c>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="11" t="s">
+      <c r="A672" s="3" t="s">
         <v>1822</v>
       </c>
       <c r="B672" t="s">
@@ -47925,15 +49278,15 @@
       <c r="C672" t="s">
         <v>1823</v>
       </c>
-      <c r="D672" s="12" t="s">
+      <c r="D672" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="E672" s="14" t="s">
+      <c r="E672" s="5" t="s">
         <v>1825</v>
       </c>
     </row>
     <row r="673" spans="1:5">
-      <c r="A673" s="11" t="s">
+      <c r="A673" s="3" t="s">
         <v>1826</v>
       </c>
       <c r="B673" t="s">
@@ -47942,30 +49295,29 @@
       <c r="C673" t="s">
         <v>1823</v>
       </c>
-      <c r="D673" s="12" t="s">
+      <c r="D673" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="E673" s="13" t="s">
+      <c r="E673" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="674" spans="1:5">
-      <c r="A674" s="11" t="s">
+      <c r="A674" s="3" t="s">
         <v>1828</v>
       </c>
       <c r="B674" t="s">
         <v>51</v>
       </c>
-      <c r="C674"/>
-      <c r="D674" s="12" t="s">
+      <c r="D674" s="4" t="s">
         <v>1829</v>
       </c>
-      <c r="E674" s="13" t="s">
+      <c r="E674" s="6" t="s">
         <v>1830</v>
       </c>
     </row>
     <row r="675" spans="1:4">
-      <c r="A675" s="21" t="s">
+      <c r="A675" s="12" t="s">
         <v>1831</v>
       </c>
       <c r="B675" t="s">
@@ -47974,12 +49326,12 @@
       <c r="C675" t="s">
         <v>1832</v>
       </c>
-      <c r="D675" s="22" t="s">
+      <c r="D675" s="13" t="s">
         <v>1833</v>
       </c>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="11" t="s">
+      <c r="A676" s="3" t="s">
         <v>1834</v>
       </c>
       <c r="B676" t="s">
@@ -47988,15 +49340,15 @@
       <c r="C676" t="s">
         <v>1832</v>
       </c>
-      <c r="D676" s="11" t="s">
+      <c r="D676" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="E676" s="14" t="s">
+      <c r="E676" s="5" t="s">
         <v>1836</v>
       </c>
     </row>
     <row r="677" spans="1:5">
-      <c r="A677" s="11" t="s">
+      <c r="A677" s="3" t="s">
         <v>1837</v>
       </c>
       <c r="B677" t="s">
@@ -48005,30 +49357,29 @@
       <c r="C677" t="s">
         <v>1832</v>
       </c>
-      <c r="D677" s="12" t="s">
+      <c r="D677" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="E677" s="13" t="s">
+      <c r="E677" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="678" spans="1:5">
-      <c r="A678" s="11" t="s">
+      <c r="A678" s="3" t="s">
         <v>1839</v>
       </c>
       <c r="B678" t="s">
         <v>51</v>
       </c>
-      <c r="C678"/>
-      <c r="D678" s="12" t="s">
+      <c r="D678" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="E678" s="13" t="s">
+      <c r="E678" s="6" t="s">
         <v>1841</v>
       </c>
     </row>
     <row r="679" ht="54" spans="1:4">
-      <c r="A679" s="11" t="s">
+      <c r="A679" s="3" t="s">
         <v>1842</v>
       </c>
       <c r="B679" t="s">
@@ -48037,12 +49388,12 @@
       <c r="C679" t="s">
         <v>1843</v>
       </c>
-      <c r="D679" s="17" t="s">
+      <c r="D679" s="8" t="s">
         <v>1844</v>
       </c>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="11" t="s">
+      <c r="A680" s="3" t="s">
         <v>1845</v>
       </c>
       <c r="B680" t="s">
@@ -48051,15 +49402,15 @@
       <c r="C680" t="s">
         <v>1843</v>
       </c>
-      <c r="D680" s="12" t="s">
+      <c r="D680" s="4" t="s">
         <v>1846</v>
       </c>
-      <c r="E680" s="13" t="s">
+      <c r="E680" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="681" spans="1:5">
-      <c r="A681" s="11" t="s">
+      <c r="A681" s="3" t="s">
         <v>1847</v>
       </c>
       <c r="B681" t="s">
@@ -48068,15 +49419,15 @@
       <c r="C681" t="s">
         <v>1843</v>
       </c>
-      <c r="D681" s="12" t="s">
+      <c r="D681" s="4" t="s">
         <v>1848</v>
       </c>
-      <c r="E681" s="13" t="s">
+      <c r="E681" s="6" t="s">
         <v>1849</v>
       </c>
     </row>
     <row r="682" ht="27" spans="1:5">
-      <c r="A682" s="11" t="s">
+      <c r="A682" s="3" t="s">
         <v>1850</v>
       </c>
       <c r="B682" t="s">
@@ -48085,15 +49436,15 @@
       <c r="C682" t="s">
         <v>1851</v>
       </c>
-      <c r="D682" s="11" t="s">
+      <c r="D682" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="E682" s="18" t="s">
+      <c r="E682" s="7" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="11" t="s">
+      <c r="A683" s="3" t="s">
         <v>1854</v>
       </c>
       <c r="B683" t="s">
@@ -48102,15 +49453,15 @@
       <c r="C683" t="s">
         <v>1851</v>
       </c>
-      <c r="D683" s="19" t="s">
+      <c r="D683" s="11" t="s">
         <v>1855</v>
       </c>
-      <c r="E683" s="13" t="s">
+      <c r="E683" s="6" t="s">
         <v>1856</v>
       </c>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="11" t="s">
+      <c r="A684" s="3" t="s">
         <v>1857</v>
       </c>
       <c r="B684" t="s">
@@ -48119,15 +49470,15 @@
       <c r="C684" t="s">
         <v>1851</v>
       </c>
-      <c r="D684" s="11" t="s">
+      <c r="D684" s="3" t="s">
         <v>1858</v>
       </c>
-      <c r="E684" s="13" t="s">
+      <c r="E684" s="6" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="11" t="s">
+      <c r="A685" s="3" t="s">
         <v>1860</v>
       </c>
       <c r="B685" t="s">
@@ -48136,15 +49487,15 @@
       <c r="C685" t="s">
         <v>1843</v>
       </c>
-      <c r="D685" s="12" t="s">
+      <c r="D685" s="4" t="s">
         <v>1861</v>
       </c>
-      <c r="E685" s="13" t="s">
+      <c r="E685" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="686" spans="1:5">
-      <c r="A686" s="11" t="s">
+      <c r="A686" s="3" t="s">
         <v>1862</v>
       </c>
       <c r="B686" t="s">
@@ -48153,15 +49504,15 @@
       <c r="C686" t="s">
         <v>1843</v>
       </c>
-      <c r="D686" s="12" t="s">
+      <c r="D686" s="4" t="s">
         <v>1863</v>
       </c>
-      <c r="E686" s="13" t="s">
+      <c r="E686" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="687" spans="1:5">
-      <c r="A687" s="11" t="s">
+      <c r="A687" s="3" t="s">
         <v>1864</v>
       </c>
       <c r="B687" t="s">
@@ -48170,15 +49521,15 @@
       <c r="C687" t="s">
         <v>1865</v>
       </c>
-      <c r="D687" s="12" t="s">
+      <c r="D687" s="4" t="s">
         <v>1866</v>
       </c>
-      <c r="E687" s="14" t="s">
+      <c r="E687" s="5" t="s">
         <v>1867</v>
       </c>
     </row>
     <row r="688" spans="1:5">
-      <c r="A688" s="11" t="s">
+      <c r="A688" s="3" t="s">
         <v>1868</v>
       </c>
       <c r="B688" t="s">
@@ -48187,15 +49538,15 @@
       <c r="C688" t="s">
         <v>1865</v>
       </c>
-      <c r="D688" s="12" t="s">
+      <c r="D688" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="E688" s="13" t="s">
+      <c r="E688" s="6" t="s">
         <v>1870</v>
       </c>
     </row>
     <row r="689" ht="54" spans="1:4">
-      <c r="A689" s="11" t="s">
+      <c r="A689" s="3" t="s">
         <v>1871</v>
       </c>
       <c r="B689" t="s">
@@ -48204,12 +49555,12 @@
       <c r="C689" t="s">
         <v>1872</v>
       </c>
-      <c r="D689" s="18" t="s">
+      <c r="D689" s="7" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="690" spans="1:5">
-      <c r="A690" s="11" t="s">
+      <c r="A690" s="3" t="s">
         <v>1874</v>
       </c>
       <c r="B690" t="s">
@@ -48218,15 +49569,15 @@
       <c r="C690" t="s">
         <v>1872</v>
       </c>
-      <c r="D690" s="12" t="s">
+      <c r="D690" s="4" t="s">
         <v>1875</v>
       </c>
-      <c r="E690" s="14" t="s">
+      <c r="E690" s="5" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="11" t="s">
+      <c r="A691" s="3" t="s">
         <v>1876</v>
       </c>
       <c r="B691" t="s">
@@ -48238,12 +49589,12 @@
       <c r="D691" t="s">
         <v>1878</v>
       </c>
-      <c r="E691" s="13" t="s">
+      <c r="E691" s="6" t="s">
         <v>1879</v>
       </c>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="11" t="s">
+      <c r="A692" s="3" t="s">
         <v>1880</v>
       </c>
       <c r="B692" t="s">
@@ -48252,15 +49603,15 @@
       <c r="C692" t="s">
         <v>1877</v>
       </c>
-      <c r="D692" s="12" t="s">
+      <c r="D692" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="E692" s="13" t="s">
+      <c r="E692" s="6" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="693" ht="27" spans="1:5">
-      <c r="A693" s="11" t="s">
+      <c r="A693" s="3" t="s">
         <v>1883</v>
       </c>
       <c r="B693" t="s">
@@ -48269,15 +49620,15 @@
       <c r="C693" t="s">
         <v>1877</v>
       </c>
-      <c r="D693" s="11" t="s">
+      <c r="D693" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="E693" s="13" t="s">
+      <c r="E693" s="6" t="s">
         <v>1885</v>
       </c>
     </row>
     <row r="694" spans="1:5">
-      <c r="A694" s="11" t="s">
+      <c r="A694" s="3" t="s">
         <v>1886</v>
       </c>
       <c r="B694" t="s">
@@ -48286,7 +49637,7 @@
       <c r="C694" t="s">
         <v>1877</v>
       </c>
-      <c r="D694" s="12" t="s">
+      <c r="D694" s="4" t="s">
         <v>1887</v>
       </c>
       <c r="E694" t="s">
@@ -48294,38 +49645,38 @@
       </c>
     </row>
     <row r="695" spans="1:4">
-      <c r="A695" s="11" t="s">
+      <c r="A695" s="3" t="s">
         <v>1889</v>
       </c>
       <c r="B695" t="s">
         <v>6</v>
       </c>
-      <c r="C695" s="11" t="s">
+      <c r="C695" s="3" t="s">
         <v>1890</v>
       </c>
-      <c r="D695" s="12" t="s">
+      <c r="D695" s="4" t="s">
         <v>1891</v>
       </c>
     </row>
     <row r="696" spans="1:5">
-      <c r="A696" s="11" t="s">
+      <c r="A696" s="3" t="s">
         <v>1892</v>
       </c>
       <c r="B696" t="s">
         <v>6</v>
       </c>
-      <c r="C696" s="11" t="s">
+      <c r="C696" s="3" t="s">
         <v>1890</v>
       </c>
-      <c r="D696" s="12" t="s">
+      <c r="D696" s="4" t="s">
         <v>1893</v>
       </c>
-      <c r="E696" s="14" t="s">
+      <c r="E696" s="5" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="697" ht="54" spans="1:4">
-      <c r="A697" s="11" t="s">
+      <c r="A697" s="3" t="s">
         <v>1895</v>
       </c>
       <c r="B697" t="s">
@@ -48334,12 +49685,12 @@
       <c r="C697" t="s">
         <v>1896</v>
       </c>
-      <c r="D697" s="17" t="s">
+      <c r="D697" s="8" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="698" spans="1:5">
-      <c r="A698" s="11" t="s">
+      <c r="A698" s="3" t="s">
         <v>1898</v>
       </c>
       <c r="B698" t="s">
@@ -48348,15 +49699,15 @@
       <c r="C698" t="s">
         <v>1896</v>
       </c>
-      <c r="D698" s="12" t="s">
+      <c r="D698" s="4" t="s">
         <v>1899</v>
       </c>
-      <c r="E698" s="13" t="s">
+      <c r="E698" s="6" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="699" spans="1:5">
-      <c r="A699" s="11" t="s">
+      <c r="A699" s="3" t="s">
         <v>1901</v>
       </c>
       <c r="B699" t="s">
@@ -48365,15 +49716,15 @@
       <c r="C699" t="s">
         <v>1896</v>
       </c>
-      <c r="D699" s="12" t="s">
+      <c r="D699" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="E699" s="13" t="s">
+      <c r="E699" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="700" spans="1:4">
-      <c r="A700" s="11" t="s">
+      <c r="A700" s="3" t="s">
         <v>1903</v>
       </c>
       <c r="B700" t="s">
@@ -48382,12 +49733,12 @@
       <c r="C700" t="s">
         <v>1904</v>
       </c>
-      <c r="D700" s="12" t="s">
+      <c r="D700" s="4" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="701" spans="1:5">
-      <c r="A701" s="11" t="s">
+      <c r="A701" s="3" t="s">
         <v>1906</v>
       </c>
       <c r="B701" t="s">
@@ -48396,15 +49747,15 @@
       <c r="C701" t="s">
         <v>1904</v>
       </c>
-      <c r="D701" s="12" t="s">
+      <c r="D701" s="4" t="s">
         <v>1907</v>
       </c>
-      <c r="E701" s="13" t="s">
+      <c r="E701" s="6" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="11" t="s">
+      <c r="A702" s="3" t="s">
         <v>1909</v>
       </c>
       <c r="B702" t="s">
@@ -48413,15 +49764,15 @@
       <c r="C702" t="s">
         <v>1904</v>
       </c>
-      <c r="D702" s="12" t="s">
+      <c r="D702" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="E702" s="14" t="s">
+      <c r="E702" s="5" t="s">
         <v>1911</v>
       </c>
     </row>
     <row r="703" ht="40.5" spans="1:4">
-      <c r="A703" s="11" t="s">
+      <c r="A703" s="3" t="s">
         <v>1912</v>
       </c>
       <c r="B703" t="s">
@@ -48430,12 +49781,12 @@
       <c r="C703" t="s">
         <v>1913</v>
       </c>
-      <c r="D703" s="18" t="s">
+      <c r="D703" s="7" t="s">
         <v>1914</v>
       </c>
     </row>
     <row r="704" spans="1:5">
-      <c r="A704" s="11" t="s">
+      <c r="A704" s="3" t="s">
         <v>1915</v>
       </c>
       <c r="B704" t="s">
@@ -48444,15 +49795,15 @@
       <c r="C704" t="s">
         <v>1913</v>
       </c>
-      <c r="D704" s="12" t="s">
+      <c r="D704" s="4" t="s">
         <v>1916</v>
       </c>
-      <c r="E704" s="13" t="s">
+      <c r="E704" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="705" spans="1:5">
-      <c r="A705" s="11" t="s">
+      <c r="A705" s="3" t="s">
         <v>1917</v>
       </c>
       <c r="B705" t="s">
@@ -48461,15 +49812,15 @@
       <c r="C705" t="s">
         <v>1913</v>
       </c>
-      <c r="D705" s="12" t="s">
+      <c r="D705" s="4" t="s">
         <v>1918</v>
       </c>
-      <c r="E705" s="13" t="s">
+      <c r="E705" s="6" t="s">
         <v>1919</v>
       </c>
     </row>
     <row r="706" spans="1:5">
-      <c r="A706" s="11" t="s">
+      <c r="A706" s="3" t="s">
         <v>1920</v>
       </c>
       <c r="B706" t="s">
@@ -48478,27 +49829,26 @@
       <c r="C706" t="s">
         <v>1913</v>
       </c>
-      <c r="D706" s="12" t="s">
+      <c r="D706" s="4" t="s">
         <v>1921</v>
       </c>
-      <c r="E706" s="13" t="s">
+      <c r="E706" s="6" t="s">
         <v>1922</v>
       </c>
     </row>
     <row r="707" spans="1:4">
-      <c r="A707" s="11" t="s">
+      <c r="A707" s="3" t="s">
         <v>1923</v>
       </c>
       <c r="B707" t="s">
         <v>6</v>
       </c>
-      <c r="C707"/>
-      <c r="D707" s="12" t="s">
+      <c r="D707" s="4" t="s">
         <v>1924</v>
       </c>
     </row>
     <row r="708" ht="40.5" spans="1:4">
-      <c r="A708" s="11" t="s">
+      <c r="A708" s="3" t="s">
         <v>1925</v>
       </c>
       <c r="B708" t="s">
@@ -48507,12 +49857,12 @@
       <c r="C708" t="s">
         <v>1926</v>
       </c>
-      <c r="D708" s="18" t="s">
+      <c r="D708" s="7" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="709" spans="1:5">
-      <c r="A709" s="11" t="s">
+      <c r="A709" s="3" t="s">
         <v>1928</v>
       </c>
       <c r="B709" t="s">
@@ -48521,15 +49871,15 @@
       <c r="C709" t="s">
         <v>1926</v>
       </c>
-      <c r="D709" s="12" t="s">
+      <c r="D709" s="4" t="s">
         <v>1929</v>
       </c>
-      <c r="E709" s="14" t="s">
+      <c r="E709" s="5" t="s">
         <v>1930</v>
       </c>
     </row>
     <row r="710" spans="1:5">
-      <c r="A710" s="11" t="s">
+      <c r="A710" s="3" t="s">
         <v>1931</v>
       </c>
       <c r="B710" t="s">
@@ -48538,15 +49888,15 @@
       <c r="C710" t="s">
         <v>1932</v>
       </c>
-      <c r="D710" s="12" t="s">
+      <c r="D710" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="E710" s="13" t="s">
+      <c r="E710" s="6" t="s">
         <v>1934</v>
       </c>
     </row>
     <row r="711" spans="1:5">
-      <c r="A711" s="11" t="s">
+      <c r="A711" s="3" t="s">
         <v>1935</v>
       </c>
       <c r="B711" t="s">
@@ -48555,137 +49905,137 @@
       <c r="C711" t="s">
         <v>1932</v>
       </c>
-      <c r="D711" s="12" t="s">
+      <c r="D711" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="E711" s="13" t="s">
+      <c r="E711" s="6" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="712" spans="1:5">
-      <c r="A712" s="11" t="s">
+      <c r="A712" s="3" t="s">
         <v>1937</v>
       </c>
       <c r="B712" t="s">
         <v>6</v>
       </c>
-      <c r="D712" s="12" t="s">
+      <c r="D712" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="E712" s="13" t="s">
+      <c r="E712" s="6" t="s">
         <v>1939</v>
       </c>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="11" t="s">
+      <c r="A713" s="3" t="s">
         <v>1940</v>
       </c>
       <c r="B713" t="s">
         <v>6</v>
       </c>
-      <c r="D713" s="12" t="s">
+      <c r="D713" s="4" t="s">
         <v>1941</v>
       </c>
-      <c r="E713" s="13" t="s">
+      <c r="E713" s="6" t="s">
         <v>1942</v>
       </c>
     </row>
     <row r="714" spans="1:5">
-      <c r="A714" s="11" t="s">
+      <c r="A714" s="3" t="s">
         <v>1943</v>
       </c>
       <c r="B714" t="s">
         <v>6</v>
       </c>
-      <c r="D714" s="12" t="s">
+      <c r="D714" s="4" t="s">
         <v>1944</v>
       </c>
-      <c r="E714" s="13" t="s">
+      <c r="E714" s="6" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="715" spans="1:5">
-      <c r="A715" s="11" t="s">
+      <c r="A715" s="3" t="s">
         <v>1946</v>
       </c>
       <c r="B715" t="s">
         <v>6</v>
       </c>
-      <c r="D715" s="12" t="s">
+      <c r="D715" s="4" t="s">
         <v>1947</v>
       </c>
-      <c r="E715" s="13" t="s">
+      <c r="E715" s="6" t="s">
         <v>1948</v>
       </c>
     </row>
     <row r="716" ht="81" spans="1:4">
-      <c r="A716" s="11" t="s">
+      <c r="A716" s="3" t="s">
         <v>1949</v>
       </c>
       <c r="B716" t="s">
         <v>6</v>
       </c>
-      <c r="D716" s="18" t="s">
+      <c r="D716" s="7" t="s">
         <v>1950</v>
       </c>
     </row>
     <row r="717" spans="1:4">
-      <c r="A717" s="11" t="s">
+      <c r="A717" s="3" t="s">
         <v>1951</v>
       </c>
       <c r="B717" t="s">
         <v>6</v>
       </c>
-      <c r="D717" s="12" t="s">
+      <c r="D717" s="4" t="s">
         <v>1952</v>
       </c>
     </row>
     <row r="718" spans="1:4">
-      <c r="A718" s="11" t="s">
+      <c r="A718" s="3" t="s">
         <v>1953</v>
       </c>
       <c r="B718" t="s">
         <v>6</v>
       </c>
-      <c r="D718" s="11" t="s">
+      <c r="D718" s="3" t="s">
         <v>1954</v>
       </c>
     </row>
     <row r="719" spans="1:4">
-      <c r="A719" s="11" t="s">
+      <c r="A719" s="3" t="s">
         <v>1955</v>
       </c>
       <c r="B719" t="s">
         <v>6</v>
       </c>
-      <c r="D719" s="12" t="s">
+      <c r="D719" s="4" t="s">
         <v>1956</v>
       </c>
     </row>
     <row r="720" spans="1:4">
-      <c r="A720" s="11" t="s">
+      <c r="A720" s="3" t="s">
         <v>1957</v>
       </c>
       <c r="B720" t="s">
         <v>6</v>
       </c>
-      <c r="D720" s="12" t="s">
+      <c r="D720" s="4" t="s">
         <v>1958</v>
       </c>
     </row>
     <row r="721" ht="54" spans="1:4">
-      <c r="A721" s="11" t="s">
+      <c r="A721" s="3" t="s">
         <v>1959</v>
       </c>
       <c r="B721" t="s">
         <v>6</v>
       </c>
-      <c r="D721" s="18" t="s">
+      <c r="D721" s="7" t="s">
         <v>1960</v>
       </c>
     </row>
     <row r="722" spans="1:4">
-      <c r="A722" s="11" t="s">
+      <c r="A722" s="3" t="s">
         <v>1961</v>
       </c>
       <c r="B722" t="s">
@@ -48696,43 +50046,43 @@
       </c>
     </row>
     <row r="723" spans="1:4">
-      <c r="A723" s="21" t="s">
+      <c r="A723" s="12" t="s">
         <v>1963</v>
       </c>
       <c r="B723" t="s">
         <v>6</v>
       </c>
-      <c r="D723" s="22" t="s">
+      <c r="D723" s="13" t="s">
         <v>1964</v>
       </c>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="11" t="s">
+      <c r="A724" s="3" t="s">
         <v>1965</v>
       </c>
       <c r="B724" t="s">
         <v>6</v>
       </c>
-      <c r="D724" s="12" t="s">
+      <c r="D724" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="E724" s="13" t="s">
+      <c r="E724" s="6" t="s">
         <v>1967</v>
       </c>
     </row>
     <row r="725" spans="1:4">
-      <c r="A725" s="11" t="s">
+      <c r="A725" s="3" t="s">
         <v>1968</v>
       </c>
       <c r="B725" t="s">
         <v>6</v>
       </c>
-      <c r="D725" s="12" t="s">
+      <c r="D725" s="4" t="s">
         <v>1969</v>
       </c>
     </row>
     <row r="726" spans="1:5">
-      <c r="A726" s="11" t="s">
+      <c r="A726" s="3" t="s">
         <v>1970</v>
       </c>
       <c r="B726" t="s">
@@ -48741,15 +50091,15 @@
       <c r="C726" t="s">
         <v>1972</v>
       </c>
-      <c r="D726" s="11" t="s">
+      <c r="D726" s="3" t="s">
         <v>1973</v>
       </c>
-      <c r="E726" s="13" t="s">
+      <c r="E726" s="6" t="s">
         <v>1974</v>
       </c>
     </row>
     <row r="727" ht="27" spans="1:5">
-      <c r="A727" s="11" t="s">
+      <c r="A727" s="3" t="s">
         <v>1975</v>
       </c>
       <c r="B727" t="s">
@@ -48758,10 +50108,10 @@
       <c r="C727" t="s">
         <v>1972</v>
       </c>
-      <c r="D727" s="11" t="s">
+      <c r="D727" s="3" t="s">
         <v>1976</v>
       </c>
-      <c r="E727" s="13" t="s">
+      <c r="E727" s="6" t="s">
         <v>1977</v>
       </c>
     </row>
